--- a/maps/AZ/AZ20C_energies.xlsx
+++ b/maps/AZ/AZ20C_energies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/AZ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1DC59F-AC73-134C-9E39-ED4549908773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E8E5F8-06C0-2C47-9BC6-B42368107260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{95FC3DAC-F24A-7C41-AFDA-0418D017069F}"/>
+    <workbookView xWindow="1160" yWindow="560" windowWidth="27640" windowHeight="17440" xr2:uid="{95FC3DAC-F24A-7C41-AFDA-0418D017069F}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="2" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="99">
   <si>
     <t>#</t>
   </si>
@@ -354,6 +354,9 @@
   </si>
   <si>
     <t>&lt;&lt;&lt; Includes a runtime error</t>
+  </si>
+  <si>
+    <t>-# not contiguous</t>
   </si>
 </sst>
 </file>
@@ -787,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F745D026-6BA9-AB45-93E7-0E1B1C1D9B8C}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -983,12 +986,25 @@
         <v>93</v>
       </c>
       <c r="D14" s="13">
-        <f>COUNTIF(DATA!F1:F101, "&gt;0.95")</f>
+        <f>COUNTIF(DATA!F2:F101, "&gt;0.95")</f>
         <v>30</v>
       </c>
       <c r="E14" s="17">
         <f>D14/D13</f>
         <v>0.47619047619047616</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15">
+        <f>COUNTIF(DATA!C2:C101, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="17">
+        <f>D15/D11</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1000,11 +1016,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5CE2F69-B1C4-F145-9310-B57BB43ED826}">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" sqref="A1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/maps/AZ/AZ20C_energies.xlsx
+++ b/maps/AZ/AZ20C_energies.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/AZ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E8E5F8-06C0-2C47-9BC6-B42368107260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF24B225-21DC-6345-9501-DB1102BAE027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="560" windowWidth="27640" windowHeight="17440" xr2:uid="{95FC3DAC-F24A-7C41-AFDA-0418D017069F}"/>
+    <workbookView xWindow="1420" yWindow="560" windowWidth="27640" windowHeight="17440" xr2:uid="{95FC3DAC-F24A-7C41-AFDA-0418D017069F}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="2" r:id="rId1"/>
     <sheet name="DATA" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="AZ20C_energies" localSheetId="1">DATA!$A$1:$I$74</definedName>
+    <definedName name="AZ20C_energies" localSheetId="1">DATA!$A$1:$I$99</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="124">
   <si>
     <t>#</t>
   </si>
@@ -311,9 +311,6 @@
     <t>AZ20C_I084K01N09</t>
   </si>
   <si>
-    <t>Lowest: 1-100</t>
-  </si>
-  <si>
     <t>min</t>
   </si>
   <si>
@@ -357,6 +354,84 @@
   </si>
   <si>
     <t>-# not contiguous</t>
+  </si>
+  <si>
+    <t>Lowest: 1-100, 1-1000</t>
+  </si>
+  <si>
+    <t>AZ20C_I001K01N09</t>
+  </si>
+  <si>
+    <t>AZ20C_I005K01N09</t>
+  </si>
+  <si>
+    <t>AZ20C_I082K01N09</t>
+  </si>
+  <si>
+    <t>AZ20C_I046K01N09</t>
+  </si>
+  <si>
+    <t>AZ20C_I041K01N09</t>
+  </si>
+  <si>
+    <t>AZ20C_I092K01N09</t>
+  </si>
+  <si>
+    <t>AZ20C_I068K01N09</t>
+  </si>
+  <si>
+    <t>AZ20C_I063K01N09</t>
+  </si>
+  <si>
+    <t>AZ20C_I021K01N09</t>
+  </si>
+  <si>
+    <t>AZ20C_I066K01N09</t>
+  </si>
+  <si>
+    <t>AZ20C_I098K01N09</t>
+  </si>
+  <si>
+    <t>AZ20C_I035K01N09</t>
+  </si>
+  <si>
+    <t>AZ20C_I045K01N09</t>
+  </si>
+  <si>
+    <t>AZ20C_I013K01N09</t>
+  </si>
+  <si>
+    <t>AZ20C_I061K01N09</t>
+  </si>
+  <si>
+    <t>AZ20C_I089K01N09</t>
+  </si>
+  <si>
+    <t>AZ20C_I014K01N09</t>
+  </si>
+  <si>
+    <t>AZ20C_I059K01N09</t>
+  </si>
+  <si>
+    <t>AZ20C_I016K01N09</t>
+  </si>
+  <si>
+    <t>AZ20C_I085K01N09</t>
+  </si>
+  <si>
+    <t>AZ20C_I099K01N09</t>
+  </si>
+  <si>
+    <t>AZ20C_I057K01N09</t>
+  </si>
+  <si>
+    <t>AZ20C_I000K01N09</t>
+  </si>
+  <si>
+    <t>AZ20C_I053K01N09</t>
+  </si>
+  <si>
+    <t>AZ20C_I077K01N09</t>
   </si>
 </sst>
 </file>
@@ -444,7 +519,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -471,6 +546,10 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -793,20 +872,20 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" s="11">
         <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -826,107 +905,107 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="7">
-        <f>MIN(DATA!E$2:E$101)</f>
+        <f>MIN(DATA!E$2:E$126)</f>
         <v>0</v>
       </c>
       <c r="C4" s="7">
-        <f>MIN(DATA!F$2:F$101)</f>
+        <f>MIN(DATA!F$2:F$126)</f>
         <v>0.75765099999999996</v>
       </c>
       <c r="D4" s="7">
-        <f>MIN(DATA!G$2:G$101)</f>
+        <f>MIN(DATA!G$2:G$126)</f>
         <v>0</v>
       </c>
       <c r="E4" s="7">
-        <f>MIN(DATA!H$2:H$101)</f>
+        <f>MIN(DATA!H$2:H$126)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="7">
-        <f>MAX(DATA!E$2:E$101)</f>
+        <f>MAX(DATA!E$2:E$126)</f>
         <v>2.6046E-2</v>
       </c>
       <c r="C5" s="7">
-        <f>MAX(DATA!F$2:F$101)</f>
+        <f>MAX(DATA!F$2:F$126)</f>
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <f>MAX(DATA!G$2:G$101)</f>
+        <f>MAX(DATA!G$2:G$126)</f>
         <v>0.84905799999999998</v>
       </c>
       <c r="E5" s="7">
-        <f>MAX(DATA!H$2:H$101)</f>
+        <f>MAX(DATA!H$2:H$126)</f>
         <v>0.66247299999999998</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="7">
-        <f>AVERAGE(DATA!E$2:E$101)</f>
-        <v>8.0995068493150725E-3</v>
+        <f>AVERAGE(DATA!E$2:E$126)</f>
+        <v>7.6533367346938797E-3</v>
       </c>
       <c r="C6" s="7">
-        <f>AVERAGE(DATA!F$2:F$101)</f>
-        <v>0.90993849315068454</v>
+        <f>AVERAGE(DATA!F$2:F$126)</f>
+        <v>0.90478279591836819</v>
       </c>
       <c r="D6" s="7">
-        <f>AVERAGE(DATA!G$2:G$101)</f>
-        <v>0.35426871232876689</v>
+        <f>AVERAGE(DATA!G$2:G$126)</f>
+        <v>0.37239824489795886</v>
       </c>
       <c r="E6" s="7">
-        <f>AVERAGE(DATA!H$2:H$101)</f>
-        <v>0.22110157534246572</v>
+        <f>AVERAGE(DATA!H$2:H$126)</f>
+        <v>0.23270855102040808</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="7">
-        <f>MEDIAN(DATA!E$2:E$101)</f>
-        <v>7.9629999999999996E-3</v>
+        <f>MEDIAN(DATA!E$2:E$126)</f>
+        <v>7.8385E-3</v>
       </c>
       <c r="C7" s="7">
-        <f>MEDIAN(DATA!F$2:F$101)</f>
+        <f>MEDIAN(DATA!F$2:F$126)</f>
         <v>0.94670200000000004</v>
       </c>
       <c r="D7" s="7">
-        <f>MEDIAN(DATA!G$2:G$101)</f>
-        <v>0.31209300000000001</v>
+        <f>MEDIAN(DATA!G$2:G$126)</f>
+        <v>0.32064100000000001</v>
       </c>
       <c r="E7" s="7">
-        <f>MEDIAN(DATA!H$2:H$101)</f>
-        <v>0.116881</v>
+        <f>MEDIAN(DATA!H$2:H$126)</f>
+        <v>0.11714050000000001</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" s="10">
-        <f>STDEV(DATA!E$2:E$101)</f>
-        <v>3.6754927036433808E-3</v>
+        <f>STDEV(DATA!E$2:E$126)</f>
+        <v>3.6297753784238357E-3</v>
       </c>
       <c r="C8" s="10">
-        <f>STDEV(DATA!F$2:F$101)</f>
-        <v>8.6015761836150839E-2</v>
+        <f>STDEV(DATA!F$2:F$126)</f>
+        <v>8.0893739246352597E-2</v>
       </c>
       <c r="D8" s="10">
-        <f>STDEV(DATA!G$2:G$101)</f>
-        <v>0.24270953836281589</v>
+        <f>STDEV(DATA!G$2:G$126)</f>
+        <v>0.2255393438653619</v>
       </c>
       <c r="E8" s="10">
-        <f>STDEV(DATA!H$2:H$101)</f>
-        <v>0.22332319929457484</v>
+        <f>STDEV(DATA!H$2:H$126)</f>
+        <v>0.2089343561575048</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -938,73 +1017,73 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" s="13">
-        <v>73</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12" s="11">
         <f>B1-D11</f>
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E12" s="15">
         <f>D12/B1</f>
-        <v>0.27</v>
+        <v>0.02</v>
       </c>
       <c r="F12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D13" s="13">
-        <f>COUNTIF(DATA!E2:E101, "&lt;0.01")</f>
-        <v>63</v>
+        <f>COUNTIF(DATA!E2:E126, "&lt;0.01")</f>
+        <v>87</v>
       </c>
       <c r="E13" s="17">
         <f>D13/D11</f>
-        <v>0.86301369863013699</v>
+        <v>0.88775510204081631</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="13">
-        <f>COUNTIF(DATA!F2:F101, "&gt;0.95")</f>
-        <v>30</v>
+        <f>COUNTIF(DATA!F2:F126, "&gt;0.95")</f>
+        <v>36</v>
       </c>
       <c r="E14" s="17">
         <f>D14/D13</f>
-        <v>0.47619047619047616</v>
+        <v>0.41379310344827586</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D15">
-        <f>COUNTIF(DATA!C2:C101, FALSE)</f>
-        <v>0</v>
+        <f>COUNTIF(DATA!C2:C126, FALSE)</f>
+        <v>1</v>
       </c>
       <c r="E15" s="17">
         <f>D15/D11</f>
-        <v>0</v>
+        <v>1.020408163265306E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1014,22 +1093,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5CE2F69-B1C4-F145-9310-B57BB43ED826}">
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:I1048576"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="9.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1088,1881 +1169,2532 @@
         <v>0</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>97</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7">
-        <v>2963718.1379829999</v>
-      </c>
-      <c r="E3" s="5">
-        <v>2.9559999999999999E-3</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0.95617799999999997</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0.23596200000000001</v>
-      </c>
-      <c r="H3" s="5">
-        <v>9.7904000000000005E-2</v>
+      <c r="A3" s="22">
+        <v>2</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="24">
+        <v>2956392.9070870001</v>
+      </c>
+      <c r="E3" s="25">
+        <v>4.7800000000000002E-4</v>
+      </c>
+      <c r="F3" s="25">
+        <v>0.94940999999999998</v>
+      </c>
+      <c r="G3" s="25">
+        <v>0.26863799999999999</v>
+      </c>
+      <c r="H3" s="25">
+        <v>0.114676</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
+        <v>97</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2963718.1379829999</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2.9559999999999999E-3</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.95617799999999997</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.23596200000000001</v>
+      </c>
+      <c r="H4" s="5">
+        <v>9.7904000000000005E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="26">
         <v>23</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="C5" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="28">
         <v>2964217.7224630001</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E5" s="29">
         <v>3.1259999999999999E-3</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F5" s="29">
         <v>0.789829</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G5" s="29">
         <v>0.64912499999999995</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H5" s="29">
         <v>0.53285099999999996</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="22">
-        <v>11</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="24">
-        <v>2966351.4394760001</v>
-      </c>
-      <c r="E5" s="25">
-        <v>3.8479999999999999E-3</v>
-      </c>
-      <c r="F5" s="25">
-        <v>0.97974700000000003</v>
-      </c>
-      <c r="G5" s="25">
-        <v>0.14694199999999999</v>
-      </c>
-      <c r="H5" s="25">
-        <v>4.1798000000000002E-2</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="I5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>2966479.8412810001</v>
+        <v>2964388.554337</v>
       </c>
       <c r="E6" s="5">
-        <v>3.8909999999999999E-3</v>
+        <v>3.1830000000000001E-3</v>
       </c>
       <c r="F6" s="5">
-        <v>0.96894800000000003</v>
+        <v>0.95040599999999997</v>
       </c>
       <c r="G6" s="5">
-        <v>0.19317699999999999</v>
+        <v>0.26667800000000003</v>
       </c>
       <c r="H6" s="5">
-        <v>6.7829E-2</v>
+        <v>0.11226800000000001</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>2968065.2419520002</v>
+        <v>2965082.5980099998</v>
       </c>
       <c r="E7" s="5">
-        <v>4.4279999999999996E-3</v>
+        <v>3.418E-3</v>
       </c>
       <c r="F7" s="5">
-        <v>0.97943199999999997</v>
+        <v>0.94949600000000001</v>
       </c>
       <c r="G7" s="5">
-        <v>0.15198</v>
+        <v>0.26469599999999999</v>
       </c>
       <c r="H7" s="5">
-        <v>4.2573E-2</v>
+        <v>0.1148</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>2969015.6534119998</v>
+        <v>2965388.82632</v>
       </c>
       <c r="E8" s="5">
-        <v>4.7489999999999997E-3</v>
+        <v>3.522E-3</v>
       </c>
       <c r="F8" s="5">
-        <v>0.77946400000000005</v>
+        <v>0.95225099999999996</v>
       </c>
       <c r="G8" s="5">
-        <v>0.66012800000000005</v>
+        <v>0.25750400000000001</v>
       </c>
       <c r="H8" s="5">
-        <v>0.55173399999999995</v>
+        <v>0.107888</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>2970238.7815700001</v>
+        <v>2965822.7196610002</v>
       </c>
       <c r="E9" s="5">
-        <v>5.1630000000000001E-3</v>
+        <v>3.669E-3</v>
       </c>
       <c r="F9" s="5">
-        <v>0.98280599999999996</v>
+        <v>0.82228800000000002</v>
       </c>
       <c r="G9" s="5">
-        <v>0.13103799999999999</v>
+        <v>0.49973299999999998</v>
       </c>
       <c r="H9" s="5">
-        <v>3.5411999999999999E-2</v>
+        <v>0.40486299999999997</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>2970238.7815700001</v>
+        <v>2966095.65546</v>
       </c>
       <c r="E10" s="5">
-        <v>5.1630000000000001E-3</v>
+        <v>3.761E-3</v>
       </c>
       <c r="F10" s="5">
-        <v>0.98280599999999996</v>
+        <v>0.95527600000000001</v>
       </c>
       <c r="G10" s="5">
-        <v>0.13103799999999999</v>
+        <v>0.24223700000000001</v>
       </c>
       <c r="H10" s="5">
-        <v>3.5411999999999999E-2</v>
+        <v>0.10052700000000001</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>2970238.7815700001</v>
+        <v>2966351.4394760001</v>
       </c>
       <c r="E11" s="5">
-        <v>5.1630000000000001E-3</v>
+        <v>3.8479999999999999E-3</v>
       </c>
       <c r="F11" s="5">
-        <v>0.98280599999999996</v>
+        <v>0.97974700000000003</v>
       </c>
       <c r="G11" s="5">
-        <v>0.13103799999999999</v>
+        <v>0.14694199999999999</v>
       </c>
       <c r="H11" s="5">
-        <v>3.5411999999999999E-2</v>
+        <v>4.1798000000000002E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>2970336.1467519999</v>
+        <v>2966479.8412810001</v>
       </c>
       <c r="E12" s="5">
-        <v>5.1960000000000001E-3</v>
+        <v>3.8909999999999999E-3</v>
       </c>
       <c r="F12" s="5">
-        <v>0.87800100000000003</v>
+        <v>0.96894800000000003</v>
       </c>
       <c r="G12" s="5">
-        <v>0.488703</v>
+        <v>0.19317699999999999</v>
       </c>
       <c r="H12" s="5">
-        <v>0.30856899999999998</v>
+        <v>6.7829E-2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>2970941.0465119998</v>
+        <v>2968065.2419520002</v>
       </c>
       <c r="E13" s="5">
-        <v>5.4010000000000004E-3</v>
+        <v>4.4279999999999996E-3</v>
       </c>
       <c r="F13" s="5">
-        <v>0.98038000000000003</v>
+        <v>0.97943199999999997</v>
       </c>
       <c r="G13" s="5">
-        <v>0.14688699999999999</v>
+        <v>0.15198</v>
       </c>
       <c r="H13" s="5">
-        <v>4.0712999999999999E-2</v>
+        <v>4.2573E-2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>2971134.67882</v>
+        <v>2968964.0992220002</v>
       </c>
       <c r="E14" s="5">
-        <v>5.4660000000000004E-3</v>
+        <v>4.7320000000000001E-3</v>
       </c>
       <c r="F14" s="5">
-        <v>0.98721899999999996</v>
+        <v>0.95415799999999995</v>
       </c>
       <c r="G14" s="5">
-        <v>0.100601</v>
+        <v>0.23783399999999999</v>
       </c>
       <c r="H14" s="5">
-        <v>2.6262000000000001E-2</v>
+        <v>0.10498300000000001</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
       <c r="D15" s="7">
-        <v>2971193.9089819998</v>
+        <v>2969015.6534119998</v>
       </c>
       <c r="E15" s="5">
-        <v>5.4860000000000004E-3</v>
+        <v>4.7489999999999997E-3</v>
       </c>
       <c r="F15" s="5">
-        <v>0.98498200000000002</v>
+        <v>0.77946400000000005</v>
       </c>
       <c r="G15" s="5">
-        <v>0.11712400000000001</v>
+        <v>0.66012800000000005</v>
       </c>
       <c r="H15" s="5">
-        <v>3.0863000000000002E-2</v>
+        <v>0.55173399999999995</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>2971823.8237419999</v>
+        <v>2969426.2562489999</v>
       </c>
       <c r="E16" s="5">
-        <v>5.7000000000000002E-3</v>
+        <v>4.888E-3</v>
       </c>
       <c r="F16" s="5">
-        <v>0.80854800000000004</v>
+        <v>0.95472400000000002</v>
       </c>
       <c r="G16" s="5">
-        <v>0.55955600000000005</v>
+        <v>0.225499</v>
       </c>
       <c r="H16" s="5">
-        <v>0.46722900000000001</v>
+        <v>0.103745</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>2972622.12255</v>
+        <v>2970169.516539</v>
       </c>
       <c r="E17" s="5">
-        <v>5.9699999999999996E-3</v>
+        <v>5.1399999999999996E-3</v>
       </c>
       <c r="F17" s="5">
-        <v>0.85739200000000004</v>
+        <v>0.95525000000000004</v>
       </c>
       <c r="G17" s="5">
-        <v>0.50881799999999999</v>
+        <v>0.22991800000000001</v>
       </c>
       <c r="H17" s="5">
-        <v>0.36627300000000002</v>
+        <v>0.101811</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
       </c>
       <c r="D18" s="7">
-        <v>2973038.1607059999</v>
+        <v>2970238.7815700001</v>
       </c>
       <c r="E18" s="5">
-        <v>6.11E-3</v>
+        <v>5.1630000000000001E-3</v>
       </c>
       <c r="F18" s="5">
-        <v>0.93844300000000003</v>
+        <v>0.98280599999999996</v>
       </c>
       <c r="G18" s="5">
-        <v>0.34199000000000002</v>
+        <v>0.13103799999999999</v>
       </c>
       <c r="H18" s="5">
-        <v>0.139372</v>
+        <v>3.5411999999999999E-2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>2974550.9873700002</v>
+        <v>2970238.7815700001</v>
       </c>
       <c r="E19" s="5">
-        <v>6.6220000000000003E-3</v>
+        <v>5.1630000000000001E-3</v>
       </c>
       <c r="F19" s="5">
-        <v>0.98811800000000005</v>
+        <v>0.98280599999999996</v>
       </c>
       <c r="G19" s="5">
-        <v>9.2979999999999993E-2</v>
+        <v>0.13103799999999999</v>
       </c>
       <c r="H19" s="5">
-        <v>2.4428999999999999E-2</v>
+        <v>3.5411999999999999E-2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>2974560.2842179998</v>
+        <v>2970238.7815700001</v>
       </c>
       <c r="E20" s="5">
-        <v>6.6259999999999999E-3</v>
+        <v>5.1630000000000001E-3</v>
       </c>
       <c r="F20" s="5">
-        <v>0.94306100000000004</v>
+        <v>0.98280599999999996</v>
       </c>
       <c r="G20" s="5">
-        <v>0.31209300000000001</v>
+        <v>0.13103799999999999</v>
       </c>
       <c r="H20" s="5">
-        <v>0.12942000000000001</v>
+        <v>3.5411999999999999E-2</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
       </c>
       <c r="D21" s="7">
-        <v>2974578.7785399999</v>
+        <v>2970336.1467519999</v>
       </c>
       <c r="E21" s="5">
-        <v>6.6319999999999999E-3</v>
+        <v>5.1960000000000001E-3</v>
       </c>
       <c r="F21" s="5">
-        <v>0.94307700000000005</v>
+        <v>0.87800100000000003</v>
       </c>
       <c r="G21" s="5">
-        <v>0.311973</v>
+        <v>0.488703</v>
       </c>
       <c r="H21" s="5">
-        <v>0.129387</v>
+        <v>0.30856899999999998</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>2974950.4201159999</v>
+        <v>2970855.648172</v>
       </c>
       <c r="E22" s="5">
-        <v>6.7580000000000001E-3</v>
+        <v>5.372E-3</v>
       </c>
       <c r="F22" s="5">
-        <v>0.78747199999999995</v>
+        <v>0.89433200000000002</v>
       </c>
       <c r="G22" s="5">
-        <v>0.62547200000000003</v>
+        <v>0.52643300000000004</v>
       </c>
       <c r="H22" s="5">
-        <v>0.51860700000000004</v>
+        <v>0.25020300000000001</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>2974968.129094</v>
+        <v>2970941.0465119998</v>
       </c>
       <c r="E23" s="5">
-        <v>6.764E-3</v>
+        <v>5.4010000000000004E-3</v>
       </c>
       <c r="F23" s="5">
-        <v>0.78748099999999999</v>
+        <v>0.98038000000000003</v>
       </c>
       <c r="G23" s="5">
-        <v>0.62677700000000003</v>
+        <v>0.14688699999999999</v>
       </c>
       <c r="H23" s="5">
-        <v>0.52093900000000004</v>
+        <v>4.0712999999999999E-2</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
       </c>
       <c r="D24" s="7">
-        <v>2975756.855401</v>
+        <v>2971134.67882</v>
       </c>
       <c r="E24" s="5">
-        <v>7.0309999999999999E-3</v>
+        <v>5.4660000000000004E-3</v>
       </c>
       <c r="F24" s="5">
-        <v>0.94841600000000004</v>
+        <v>0.98721899999999996</v>
       </c>
       <c r="G24" s="5">
-        <v>0.26716200000000001</v>
+        <v>0.100601</v>
       </c>
       <c r="H24" s="5">
-        <v>0.1174</v>
+        <v>2.6262000000000001E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>2975946.0500030001</v>
+        <v>2971193.9089819998</v>
       </c>
       <c r="E25" s="5">
-        <v>7.0949999999999997E-3</v>
+        <v>5.4860000000000004E-3</v>
       </c>
       <c r="F25" s="5">
-        <v>0.99261299999999997</v>
+        <v>0.98498200000000002</v>
       </c>
       <c r="G25" s="5">
-        <v>5.5044000000000003E-2</v>
+        <v>0.11712400000000001</v>
       </c>
       <c r="H25" s="5">
-        <v>1.5211000000000001E-2</v>
+        <v>3.0863000000000002E-2</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>2975946.0500030001</v>
+        <v>2971235.6652529999</v>
       </c>
       <c r="E26" s="5">
-        <v>7.0949999999999997E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="F26" s="5">
-        <v>0.99261299999999997</v>
+        <v>0.88175300000000001</v>
       </c>
       <c r="G26" s="5">
-        <v>5.5044000000000003E-2</v>
+        <v>0.46043200000000001</v>
       </c>
       <c r="H26" s="5">
-        <v>1.5211000000000001E-2</v>
+        <v>0.29933799999999999</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
       </c>
       <c r="D27" s="7">
-        <v>2976152.0839140001</v>
+        <v>2971823.8237419999</v>
       </c>
       <c r="E27" s="5">
-        <v>7.1640000000000002E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
       <c r="F27" s="5">
-        <v>0.94830199999999998</v>
+        <v>0.80854800000000004</v>
       </c>
       <c r="G27" s="5">
-        <v>0.26924199999999998</v>
+        <v>0.55955600000000005</v>
       </c>
       <c r="H27" s="5">
-        <v>0.11765100000000001</v>
+        <v>0.46722900000000001</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
       </c>
       <c r="D28" s="7">
-        <v>2976419.352612</v>
+        <v>2972265.783884</v>
       </c>
       <c r="E28" s="5">
-        <v>7.2550000000000002E-3</v>
+        <v>5.849E-3</v>
       </c>
       <c r="F28" s="5">
-        <v>0.78690599999999999</v>
+        <v>0.91780099999999998</v>
       </c>
       <c r="G28" s="5">
-        <v>0.64540799999999998</v>
+        <v>0.40748099999999998</v>
       </c>
       <c r="H28" s="5">
-        <v>0.54166499999999995</v>
+        <v>0.194157</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>2976661.401757</v>
+        <v>2972622.12255</v>
       </c>
       <c r="E29" s="5">
-        <v>7.3369999999999998E-3</v>
+        <v>5.9699999999999996E-3</v>
       </c>
       <c r="F29" s="5">
-        <v>0.94818899999999995</v>
+        <v>0.85739200000000004</v>
       </c>
       <c r="G29" s="5">
-        <v>0.27443000000000001</v>
+        <v>0.50881799999999999</v>
       </c>
       <c r="H29" s="5">
-        <v>0.117496</v>
+        <v>0.36627300000000002</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C30" t="b">
         <v>1</v>
       </c>
       <c r="D30" s="7">
-        <v>2977435.9518900001</v>
+        <v>2973038.1607059999</v>
       </c>
       <c r="E30" s="5">
-        <v>7.5989999999999999E-3</v>
+        <v>6.11E-3</v>
       </c>
       <c r="F30" s="5">
-        <v>0.94926299999999997</v>
+        <v>0.93844300000000003</v>
       </c>
       <c r="G30" s="5">
-        <v>0.30311700000000003</v>
+        <v>0.34199000000000002</v>
       </c>
       <c r="H30" s="5">
-        <v>0.111402</v>
+        <v>0.139372</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>2977909.5289340001</v>
+        <v>2973429.9425019999</v>
       </c>
       <c r="E31" s="5">
-        <v>7.7590000000000003E-3</v>
+        <v>6.2430000000000003E-3</v>
       </c>
       <c r="F31" s="5">
-        <v>0.946743</v>
+        <v>0.90910299999999999</v>
       </c>
       <c r="G31" s="5">
-        <v>0.28461900000000001</v>
+        <v>0.40824199999999999</v>
       </c>
       <c r="H31" s="5">
-        <v>0.120604</v>
+        <v>0.221139</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="C32" t="b">
         <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>2977947.143408</v>
+        <v>2973450.3091699998</v>
       </c>
       <c r="E32" s="5">
-        <v>7.7720000000000003E-3</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="F32" s="5">
-        <v>0.78771899999999995</v>
+        <v>0.88913200000000003</v>
       </c>
       <c r="G32" s="5">
-        <v>0.65691999999999995</v>
+        <v>0.43958900000000001</v>
       </c>
       <c r="H32" s="5">
-        <v>0.53692200000000001</v>
+        <v>0.28236299999999998</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="C33" t="b">
         <v>1</v>
       </c>
       <c r="D33" s="7">
-        <v>2978511.7074890002</v>
+        <v>2973492.3646320002</v>
       </c>
       <c r="E33" s="5">
-        <v>7.9629999999999996E-3</v>
+        <v>6.2639999999999996E-3</v>
       </c>
       <c r="F33" s="5">
-        <v>0.94670200000000004</v>
+        <v>0.91726799999999997</v>
       </c>
       <c r="G33" s="5">
-        <v>0.32064100000000001</v>
+        <v>0.37850499999999998</v>
       </c>
       <c r="H33" s="5">
-        <v>0.116881</v>
+        <v>0.19992599999999999</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="C34" t="b">
         <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>2978511.7074890002</v>
+        <v>2973639.9553430001</v>
       </c>
       <c r="E34" s="5">
-        <v>7.9629999999999996E-3</v>
+        <v>6.3140000000000002E-3</v>
       </c>
       <c r="F34" s="5">
-        <v>0.94670200000000004</v>
+        <v>0.946322</v>
       </c>
       <c r="G34" s="5">
-        <v>0.32064100000000001</v>
+        <v>0.28831499999999999</v>
       </c>
       <c r="H34" s="5">
-        <v>0.116881</v>
+        <v>0.121909</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C35" t="b">
         <v>1</v>
       </c>
       <c r="D35" s="7">
-        <v>2978511.7074890002</v>
+        <v>2974550.9873700002</v>
       </c>
       <c r="E35" s="5">
-        <v>7.9629999999999996E-3</v>
+        <v>6.6220000000000003E-3</v>
       </c>
       <c r="F35" s="5">
-        <v>0.94670200000000004</v>
+        <v>0.98811800000000005</v>
       </c>
       <c r="G35" s="5">
-        <v>0.32064100000000001</v>
+        <v>9.2979999999999993E-2</v>
       </c>
       <c r="H35" s="5">
-        <v>0.116881</v>
+        <v>2.4428999999999999E-2</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C36" t="b">
         <v>1</v>
       </c>
       <c r="D36" s="7">
-        <v>2978511.7074890002</v>
+        <v>2974560.2842179998</v>
       </c>
       <c r="E36" s="5">
-        <v>7.9629999999999996E-3</v>
+        <v>6.6259999999999999E-3</v>
       </c>
       <c r="F36" s="5">
-        <v>0.94670200000000004</v>
+        <v>0.94306100000000004</v>
       </c>
       <c r="G36" s="5">
-        <v>0.32064100000000001</v>
+        <v>0.31209300000000001</v>
       </c>
       <c r="H36" s="5">
-        <v>0.116881</v>
+        <v>0.12942000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C37" t="b">
         <v>1</v>
       </c>
       <c r="D37" s="7">
-        <v>2978511.7074890002</v>
+        <v>2974578.7785399999</v>
       </c>
       <c r="E37" s="5">
-        <v>7.9629999999999996E-3</v>
+        <v>6.6319999999999999E-3</v>
       </c>
       <c r="F37" s="5">
-        <v>0.94670200000000004</v>
+        <v>0.94307700000000005</v>
       </c>
       <c r="G37" s="5">
-        <v>0.32064100000000001</v>
+        <v>0.311973</v>
       </c>
       <c r="H37" s="5">
-        <v>0.116881</v>
+        <v>0.129387</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C38" t="b">
         <v>1</v>
       </c>
       <c r="D38" s="7">
-        <v>2978511.7074890002</v>
+        <v>2974950.4201159999</v>
       </c>
       <c r="E38" s="5">
-        <v>7.9629999999999996E-3</v>
+        <v>6.7580000000000001E-3</v>
       </c>
       <c r="F38" s="5">
-        <v>0.94670200000000004</v>
+        <v>0.78747199999999995</v>
       </c>
       <c r="G38" s="5">
-        <v>0.32064100000000001</v>
+        <v>0.62547200000000003</v>
       </c>
       <c r="H38" s="5">
-        <v>0.116881</v>
+        <v>0.51860700000000004</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C39" t="b">
         <v>1</v>
       </c>
       <c r="D39" s="7">
-        <v>2978511.7074890002</v>
+        <v>2974968.129094</v>
       </c>
       <c r="E39" s="5">
-        <v>7.9629999999999996E-3</v>
+        <v>6.764E-3</v>
       </c>
       <c r="F39" s="5">
-        <v>0.94670200000000004</v>
+        <v>0.78748099999999999</v>
       </c>
       <c r="G39" s="5">
-        <v>0.32064100000000001</v>
+        <v>0.62677700000000003</v>
       </c>
       <c r="H39" s="5">
-        <v>0.116881</v>
+        <v>0.52093900000000004</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C40" t="b">
         <v>1</v>
       </c>
       <c r="D40" s="7">
-        <v>2978511.7074890002</v>
+        <v>2975756.855401</v>
       </c>
       <c r="E40" s="5">
-        <v>7.9629999999999996E-3</v>
+        <v>7.0309999999999999E-3</v>
       </c>
       <c r="F40" s="5">
-        <v>0.94670200000000004</v>
+        <v>0.94841600000000004</v>
       </c>
       <c r="G40" s="5">
-        <v>0.32064100000000001</v>
+        <v>0.26716200000000001</v>
       </c>
       <c r="H40" s="5">
-        <v>0.116881</v>
+        <v>0.1174</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
       </c>
       <c r="D41" s="7">
-        <v>2978511.7074890002</v>
+        <v>2975946.0500030001</v>
       </c>
       <c r="E41" s="5">
-        <v>7.9629999999999996E-3</v>
+        <v>7.0949999999999997E-3</v>
       </c>
       <c r="F41" s="5">
-        <v>0.94670200000000004</v>
+        <v>0.99261299999999997</v>
       </c>
       <c r="G41" s="5">
-        <v>0.32064100000000001</v>
+        <v>5.5044000000000003E-2</v>
       </c>
       <c r="H41" s="5">
-        <v>0.116881</v>
+        <v>1.5211000000000001E-2</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C42" t="b">
         <v>1</v>
       </c>
       <c r="D42" s="7">
-        <v>2978511.7074890002</v>
+        <v>2975946.0500030001</v>
       </c>
       <c r="E42" s="5">
-        <v>7.9629999999999996E-3</v>
+        <v>7.0949999999999997E-3</v>
       </c>
       <c r="F42" s="5">
-        <v>0.94670200000000004</v>
+        <v>0.99261299999999997</v>
       </c>
       <c r="G42" s="5">
-        <v>0.32064100000000001</v>
+        <v>5.5044000000000003E-2</v>
       </c>
       <c r="H42" s="5">
-        <v>0.116881</v>
+        <v>1.5211000000000001E-2</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="C43" t="b">
         <v>1</v>
       </c>
       <c r="D43" s="7">
-        <v>2978744.0611979999</v>
+        <v>2975973.5200729999</v>
       </c>
       <c r="E43" s="5">
-        <v>8.0409999999999995E-3</v>
+        <v>7.1040000000000001E-3</v>
       </c>
       <c r="F43" s="5">
-        <v>0.88017299999999998</v>
+        <v>0.92918100000000003</v>
       </c>
       <c r="G43" s="5">
-        <v>0.48289399999999999</v>
+        <v>0.37998199999999999</v>
       </c>
       <c r="H43" s="5">
-        <v>0.30681700000000001</v>
+        <v>0.16351599999999999</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C44" t="b">
         <v>1</v>
       </c>
       <c r="D44" s="7">
-        <v>2979791.165203</v>
+        <v>2976152.0839140001</v>
       </c>
       <c r="E44" s="5">
-        <v>8.3960000000000007E-3</v>
+        <v>7.1640000000000002E-3</v>
       </c>
       <c r="F44" s="5">
-        <v>0.98152099999999998</v>
+        <v>0.94830199999999998</v>
       </c>
       <c r="G44" s="5">
-        <v>0.14052500000000001</v>
+        <v>0.26924199999999998</v>
       </c>
       <c r="H44" s="5">
-        <v>3.8150000000000003E-2</v>
+        <v>0.11765100000000001</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C45" t="b">
         <v>1</v>
       </c>
       <c r="D45" s="7">
-        <v>2980128.685873</v>
+        <v>2976419.352612</v>
       </c>
       <c r="E45" s="5">
-        <v>8.5100000000000002E-3</v>
+        <v>7.2550000000000002E-3</v>
       </c>
       <c r="F45" s="5">
-        <v>0.78397899999999998</v>
+        <v>0.78690599999999999</v>
       </c>
       <c r="G45" s="5">
-        <v>0.69609799999999999</v>
+        <v>0.64540799999999998</v>
       </c>
       <c r="H45" s="5">
-        <v>0.52632800000000002</v>
+        <v>0.54166499999999995</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="C46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" s="7">
-        <v>2980142.7630619998</v>
+        <v>2976468.8011489999</v>
       </c>
       <c r="E46" s="5">
-        <v>8.515E-3</v>
+        <v>7.2709999999999997E-3</v>
       </c>
       <c r="F46" s="5">
-        <v>0.984985</v>
+        <v>0.78272699999999995</v>
       </c>
       <c r="G46" s="5">
-        <v>0.117192</v>
+        <v>0.70563399999999998</v>
       </c>
       <c r="H46" s="5">
-        <v>3.0877000000000002E-2</v>
+        <v>0.53215400000000002</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C47" t="b">
         <v>1</v>
       </c>
       <c r="D47" s="7">
-        <v>2980685.139653</v>
+        <v>2976661.401757</v>
       </c>
       <c r="E47" s="5">
-        <v>8.6979999999999991E-3</v>
+        <v>7.3369999999999998E-3</v>
       </c>
       <c r="F47" s="5">
-        <v>0.78300700000000001</v>
+        <v>0.94818899999999995</v>
       </c>
       <c r="G47" s="5">
-        <v>0.64993000000000001</v>
+        <v>0.27443000000000001</v>
       </c>
       <c r="H47" s="5">
-        <v>0.54614499999999999</v>
+        <v>0.117496</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C48" t="b">
         <v>1</v>
       </c>
       <c r="D48" s="7">
-        <v>2981326.0138079999</v>
+        <v>2977435.9518900001</v>
       </c>
       <c r="E48" s="5">
-        <v>8.9149999999999993E-3</v>
+        <v>7.5989999999999999E-3</v>
       </c>
       <c r="F48" s="5">
-        <v>0.77818600000000004</v>
+        <v>0.94926299999999997</v>
       </c>
       <c r="G48" s="5">
-        <v>0.66857299999999997</v>
+        <v>0.30311700000000003</v>
       </c>
       <c r="H48" s="5">
-        <v>0.562029</v>
+        <v>0.111402</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C49" t="b">
         <v>1</v>
       </c>
       <c r="D49" s="7">
-        <v>2981326.0138079999</v>
+        <v>2977909.5289340001</v>
       </c>
       <c r="E49" s="5">
-        <v>8.9149999999999993E-3</v>
+        <v>7.7590000000000003E-3</v>
       </c>
       <c r="F49" s="5">
-        <v>0.77818600000000004</v>
+        <v>0.946743</v>
       </c>
       <c r="G49" s="5">
-        <v>0.66857299999999997</v>
+        <v>0.28461900000000001</v>
       </c>
       <c r="H49" s="5">
-        <v>0.562029</v>
+        <v>0.120604</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C50" t="b">
         <v>1</v>
       </c>
       <c r="D50" s="7">
-        <v>2981501.6074140002</v>
+        <v>2977947.143408</v>
       </c>
       <c r="E50" s="5">
-        <v>8.9750000000000003E-3</v>
+        <v>7.7720000000000003E-3</v>
       </c>
       <c r="F50" s="5">
-        <v>0.98450300000000002</v>
+        <v>0.78771899999999995</v>
       </c>
       <c r="G50" s="5">
-        <v>0.117782</v>
+        <v>0.65691999999999995</v>
       </c>
       <c r="H50" s="5">
-        <v>3.1882000000000001E-2</v>
+        <v>0.53692200000000001</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="C51" t="b">
         <v>1</v>
       </c>
       <c r="D51" s="7">
-        <v>2981501.6074140002</v>
+        <v>2978342.3360520001</v>
       </c>
       <c r="E51" s="5">
-        <v>8.9750000000000003E-3</v>
+        <v>7.9050000000000006E-3</v>
       </c>
       <c r="F51" s="5">
-        <v>0.98450300000000002</v>
+        <v>0.82309900000000003</v>
       </c>
       <c r="G51" s="5">
-        <v>0.117782</v>
+        <v>0.52265399999999995</v>
       </c>
       <c r="H51" s="5">
-        <v>3.1882000000000001E-2</v>
+        <v>0.41579700000000003</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C52" t="b">
         <v>1</v>
       </c>
       <c r="D52" s="7">
-        <v>2981501.6074140002</v>
+        <v>2978511.7074890002</v>
       </c>
       <c r="E52" s="5">
-        <v>8.9750000000000003E-3</v>
+        <v>7.9629999999999996E-3</v>
       </c>
       <c r="F52" s="5">
-        <v>0.98450300000000002</v>
+        <v>0.94670200000000004</v>
       </c>
       <c r="G52" s="5">
-        <v>0.117782</v>
+        <v>0.32064100000000001</v>
       </c>
       <c r="H52" s="5">
-        <v>3.1882000000000001E-2</v>
+        <v>0.116881</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C53" t="b">
         <v>1</v>
       </c>
       <c r="D53" s="7">
-        <v>2981501.6074140002</v>
+        <v>2978511.7074890002</v>
       </c>
       <c r="E53" s="5">
-        <v>8.9750000000000003E-3</v>
+        <v>7.9629999999999996E-3</v>
       </c>
       <c r="F53" s="5">
-        <v>0.98450300000000002</v>
+        <v>0.94670200000000004</v>
       </c>
       <c r="G53" s="5">
-        <v>0.117782</v>
+        <v>0.32064100000000001</v>
       </c>
       <c r="H53" s="5">
-        <v>3.1882000000000001E-2</v>
+        <v>0.116881</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="C54" t="b">
         <v>1</v>
       </c>
       <c r="D54" s="7">
-        <v>2981532.507975</v>
+        <v>2978511.7074890002</v>
       </c>
       <c r="E54" s="5">
-        <v>8.9849999999999999E-3</v>
+        <v>7.9629999999999996E-3</v>
       </c>
       <c r="F54" s="5">
-        <v>0.98169899999999999</v>
+        <v>0.94670200000000004</v>
       </c>
       <c r="G54" s="5">
-        <v>0.13652500000000001</v>
+        <v>0.32064100000000001</v>
       </c>
       <c r="H54" s="5">
-        <v>3.7886999999999997E-2</v>
+        <v>0.116881</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C55" t="b">
         <v>1</v>
       </c>
       <c r="D55" s="7">
-        <v>2981532.507975</v>
+        <v>2978511.7074890002</v>
       </c>
       <c r="E55" s="5">
-        <v>8.9849999999999999E-3</v>
+        <v>7.9629999999999996E-3</v>
       </c>
       <c r="F55" s="5">
-        <v>0.98169899999999999</v>
+        <v>0.94670200000000004</v>
       </c>
       <c r="G55" s="5">
-        <v>0.13652500000000001</v>
+        <v>0.32064100000000001</v>
       </c>
       <c r="H55" s="5">
-        <v>3.7886999999999997E-2</v>
+        <v>0.116881</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C56" t="b">
         <v>1</v>
       </c>
       <c r="D56" s="7">
-        <v>2981532.507975</v>
+        <v>2978511.7074890002</v>
       </c>
       <c r="E56" s="5">
-        <v>8.9849999999999999E-3</v>
+        <v>7.9629999999999996E-3</v>
       </c>
       <c r="F56" s="5">
-        <v>0.98169899999999999</v>
+        <v>0.94670200000000004</v>
       </c>
       <c r="G56" s="5">
-        <v>0.13652500000000001</v>
+        <v>0.32064100000000001</v>
       </c>
       <c r="H56" s="5">
-        <v>3.7886999999999997E-2</v>
+        <v>0.116881</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C57" t="b">
         <v>1</v>
       </c>
       <c r="D57" s="7">
-        <v>2981532.507975</v>
+        <v>2978511.7074890002</v>
       </c>
       <c r="E57" s="5">
-        <v>8.9849999999999999E-3</v>
+        <v>7.9629999999999996E-3</v>
       </c>
       <c r="F57" s="5">
-        <v>0.98169899999999999</v>
+        <v>0.94670200000000004</v>
       </c>
       <c r="G57" s="5">
-        <v>0.13652500000000001</v>
+        <v>0.32064100000000001</v>
       </c>
       <c r="H57" s="5">
-        <v>3.7886999999999997E-2</v>
+        <v>0.116881</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="C58" t="b">
         <v>1</v>
       </c>
       <c r="D58" s="7">
-        <v>2981532.507975</v>
+        <v>2978511.7074890002</v>
       </c>
       <c r="E58" s="5">
-        <v>8.9849999999999999E-3</v>
+        <v>7.9629999999999996E-3</v>
       </c>
       <c r="F58" s="5">
-        <v>0.98169899999999999</v>
+        <v>0.94670200000000004</v>
       </c>
       <c r="G58" s="5">
-        <v>0.13652500000000001</v>
+        <v>0.32064100000000001</v>
       </c>
       <c r="H58" s="5">
-        <v>3.7886999999999997E-2</v>
+        <v>0.116881</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C59" t="b">
         <v>1</v>
       </c>
       <c r="D59" s="7">
-        <v>2981532.507975</v>
+        <v>2978511.7074890002</v>
       </c>
       <c r="E59" s="5">
-        <v>8.9849999999999999E-3</v>
+        <v>7.9629999999999996E-3</v>
       </c>
       <c r="F59" s="5">
-        <v>0.98169899999999999</v>
+        <v>0.94670200000000004</v>
       </c>
       <c r="G59" s="5">
-        <v>0.13652500000000001</v>
+        <v>0.32064100000000001</v>
       </c>
       <c r="H59" s="5">
-        <v>3.7886999999999997E-2</v>
+        <v>0.116881</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C60" t="b">
         <v>1</v>
       </c>
       <c r="D60" s="7">
-        <v>2982106.0610859999</v>
+        <v>2978511.7074890002</v>
       </c>
       <c r="E60" s="5">
-        <v>9.1789999999999997E-3</v>
+        <v>7.9629999999999996E-3</v>
       </c>
       <c r="F60" s="5">
-        <v>0.98361200000000004</v>
+        <v>0.94670200000000004</v>
       </c>
       <c r="G60" s="5">
-        <v>0.123804</v>
+        <v>0.32064100000000001</v>
       </c>
       <c r="H60" s="5">
-        <v>3.3789E-2</v>
+        <v>0.116881</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C61" t="b">
         <v>1</v>
       </c>
       <c r="D61" s="7">
-        <v>2982180.9504089998</v>
+        <v>2978511.7074890002</v>
       </c>
       <c r="E61" s="5">
-        <v>9.2049999999999996E-3</v>
+        <v>7.9629999999999996E-3</v>
       </c>
       <c r="F61" s="5">
-        <v>0.779636</v>
+        <v>0.94670200000000004</v>
       </c>
       <c r="G61" s="5">
-        <v>0.71310399999999996</v>
+        <v>0.32064100000000001</v>
       </c>
       <c r="H61" s="5">
-        <v>0.54590399999999994</v>
+        <v>0.116881</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C62" t="b">
         <v>1</v>
       </c>
       <c r="D62" s="7">
-        <v>2982229.106712</v>
+        <v>2978744.0611979999</v>
       </c>
       <c r="E62" s="5">
-        <v>9.221E-3</v>
+        <v>8.0409999999999995E-3</v>
       </c>
       <c r="F62" s="5">
-        <v>0.98034600000000005</v>
+        <v>0.88017299999999998</v>
       </c>
       <c r="G62" s="5">
-        <v>0.145236</v>
+        <v>0.48289399999999999</v>
       </c>
       <c r="H62" s="5">
-        <v>4.0842999999999997E-2</v>
+        <v>0.30681700000000001</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C63" t="b">
         <v>1</v>
       </c>
       <c r="D63" s="7">
-        <v>2984030.5865130001</v>
+        <v>2979791.165203</v>
       </c>
       <c r="E63" s="5">
-        <v>9.8300000000000002E-3</v>
+        <v>8.3960000000000007E-3</v>
       </c>
       <c r="F63" s="5">
-        <v>0.98357300000000003</v>
+        <v>0.98152099999999998</v>
       </c>
       <c r="G63" s="5">
-        <v>0.123859</v>
+        <v>0.14052500000000001</v>
       </c>
       <c r="H63" s="5">
-        <v>3.3805000000000002E-2</v>
+        <v>3.8150000000000003E-2</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="C64" t="b">
         <v>1</v>
       </c>
       <c r="D64" s="7">
-        <v>2984418.1378950002</v>
+        <v>2979940.2184219998</v>
       </c>
       <c r="E64" s="5">
-        <v>9.9620000000000004E-3</v>
+        <v>8.4460000000000004E-3</v>
       </c>
       <c r="F64" s="5">
-        <v>0.77263099999999996</v>
+        <v>0.80474500000000004</v>
       </c>
       <c r="G64" s="5">
-        <v>0.71817299999999995</v>
+        <v>0.60860499999999995</v>
       </c>
       <c r="H64" s="5">
-        <v>0.59762899999999997</v>
+        <v>0.47469099999999997</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="C65" t="b">
         <v>1</v>
       </c>
       <c r="D65" s="7">
-        <v>2984603.2617179998</v>
+        <v>2979955.193585</v>
       </c>
       <c r="E65" s="5">
-        <v>1.0024E-2</v>
+        <v>8.4510000000000002E-3</v>
       </c>
       <c r="F65" s="5">
-        <v>0.764463</v>
+        <v>0.82606800000000002</v>
       </c>
       <c r="G65" s="5">
-        <v>0.781443</v>
+        <v>0.55918299999999999</v>
       </c>
       <c r="H65" s="5">
-        <v>0.59878900000000002</v>
+        <v>0.42307800000000001</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="C66" t="b">
         <v>1</v>
       </c>
       <c r="D66" s="7">
-        <v>2984702.913065</v>
+        <v>2980128.685873</v>
       </c>
       <c r="E66" s="5">
-        <v>1.0057999999999999E-2</v>
+        <v>8.5100000000000002E-3</v>
       </c>
       <c r="F66" s="5">
-        <v>0.981576</v>
+        <v>0.78397899999999998</v>
       </c>
       <c r="G66" s="5">
-        <v>0.137212</v>
+        <v>0.69609799999999999</v>
       </c>
       <c r="H66" s="5">
-        <v>3.8155000000000001E-2</v>
+        <v>0.52632800000000002</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C67" t="b">
         <v>1</v>
       </c>
       <c r="D67" s="7">
-        <v>2984753.1159999999</v>
+        <v>2980142.7630619998</v>
       </c>
       <c r="E67" s="5">
-        <v>1.0075000000000001E-2</v>
+        <v>8.515E-3</v>
       </c>
       <c r="F67" s="5">
-        <v>0.77743200000000001</v>
+        <v>0.984985</v>
       </c>
       <c r="G67" s="5">
-        <v>0.70449700000000004</v>
+        <v>0.117192</v>
       </c>
       <c r="H67" s="5">
-        <v>0.58140700000000001</v>
+        <v>3.0877000000000002E-2</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="C68" t="b">
         <v>1</v>
       </c>
       <c r="D68" s="7">
-        <v>2985757.2390939998</v>
+        <v>2980300.1170310001</v>
       </c>
       <c r="E68" s="5">
-        <v>1.0415000000000001E-2</v>
+        <v>8.5679999999999992E-3</v>
       </c>
       <c r="F68" s="5">
-        <v>0.83884300000000001</v>
+        <v>0.87642399999999998</v>
       </c>
       <c r="G68" s="5">
-        <v>0.54459299999999999</v>
+        <v>0.52221799999999996</v>
       </c>
       <c r="H68" s="5">
-        <v>0.39587499999999998</v>
+        <v>0.310803</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C69" t="b">
         <v>1</v>
       </c>
       <c r="D69" s="7">
-        <v>2986638.5491530001</v>
+        <v>2980685.139653</v>
       </c>
       <c r="E69" s="5">
-        <v>1.0713E-2</v>
+        <v>8.6979999999999991E-3</v>
       </c>
       <c r="F69" s="5">
-        <v>0.76128499999999999</v>
+        <v>0.78300700000000001</v>
       </c>
       <c r="G69" s="5">
-        <v>0.745641</v>
+        <v>0.64993000000000001</v>
       </c>
       <c r="H69" s="5">
-        <v>0.62529199999999996</v>
+        <v>0.54614499999999999</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="C70" t="b">
         <v>1</v>
       </c>
       <c r="D70" s="7">
-        <v>2987118.651505</v>
+        <v>2981326.0138079999</v>
       </c>
       <c r="E70" s="5">
-        <v>1.0874999999999999E-2</v>
+        <v>8.9149999999999993E-3</v>
       </c>
       <c r="F70" s="5">
-        <v>0.80573600000000001</v>
+        <v>0.77818600000000004</v>
       </c>
       <c r="G70" s="5">
-        <v>0.82168600000000003</v>
+        <v>0.66857299999999997</v>
       </c>
       <c r="H70" s="5">
-        <v>0.49834899999999999</v>
+        <v>0.562029</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C71" t="b">
         <v>1</v>
       </c>
       <c r="D71" s="7">
-        <v>2987335.357963</v>
+        <v>2981326.0138079999</v>
       </c>
       <c r="E71" s="5">
-        <v>1.0949E-2</v>
+        <v>8.9149999999999993E-3</v>
       </c>
       <c r="F71" s="5">
-        <v>0.78664599999999996</v>
+        <v>0.77818600000000004</v>
       </c>
       <c r="G71" s="5">
-        <v>0.650783</v>
+        <v>0.66857299999999997</v>
       </c>
       <c r="H71" s="5">
-        <v>0.54055500000000001</v>
+        <v>0.562029</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="C72" t="b">
         <v>1</v>
       </c>
       <c r="D72" s="7">
-        <v>2991080.503151</v>
+        <v>2981461.1945170001</v>
       </c>
       <c r="E72" s="5">
-        <v>1.2215999999999999E-2</v>
+        <v>8.9610000000000002E-3</v>
       </c>
       <c r="F72" s="5">
-        <v>0.80151799999999995</v>
+        <v>0.80280799999999997</v>
       </c>
       <c r="G72" s="5">
-        <v>0.59814100000000003</v>
+        <v>0.66975499999999999</v>
       </c>
       <c r="H72" s="5">
-        <v>0.47512500000000002</v>
+        <v>0.501884</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C73" t="b">
         <v>1</v>
       </c>
       <c r="D73" s="7">
-        <v>3031045.663251</v>
+        <v>2981501.6074140002</v>
       </c>
       <c r="E73" s="5">
-        <v>2.5741E-2</v>
+        <v>8.9750000000000003E-3</v>
       </c>
       <c r="F73" s="5">
-        <v>0.79834499999999997</v>
+        <v>0.98450300000000002</v>
       </c>
       <c r="G73" s="5">
-        <v>0.80952500000000005</v>
+        <v>0.117782</v>
       </c>
       <c r="H73" s="5">
-        <v>0.53983999999999999</v>
+        <v>3.1882000000000001E-2</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74">
+        <v>27</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C74" t="b">
+        <v>1</v>
+      </c>
+      <c r="D74" s="7">
+        <v>2981501.6074140002</v>
+      </c>
+      <c r="E74" s="5">
+        <v>8.9750000000000003E-3</v>
+      </c>
+      <c r="F74" s="5">
+        <v>0.98450300000000002</v>
+      </c>
+      <c r="G74" s="5">
+        <v>0.117782</v>
+      </c>
+      <c r="H74" s="5">
+        <v>3.1882000000000001E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>31</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C75" t="b">
+        <v>1</v>
+      </c>
+      <c r="D75" s="7">
+        <v>2981501.6074140002</v>
+      </c>
+      <c r="E75" s="5">
+        <v>8.9750000000000003E-3</v>
+      </c>
+      <c r="F75" s="5">
+        <v>0.98450300000000002</v>
+      </c>
+      <c r="G75" s="5">
+        <v>0.117782</v>
+      </c>
+      <c r="H75" s="5">
+        <v>3.1882000000000001E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>95</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C76" t="b">
+        <v>1</v>
+      </c>
+      <c r="D76" s="7">
+        <v>2981501.6074140002</v>
+      </c>
+      <c r="E76" s="5">
+        <v>8.9750000000000003E-3</v>
+      </c>
+      <c r="F76" s="5">
+        <v>0.98450300000000002</v>
+      </c>
+      <c r="G76" s="5">
+        <v>0.117782</v>
+      </c>
+      <c r="H76" s="5">
+        <v>3.1882000000000001E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>9</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C77" t="b">
+        <v>1</v>
+      </c>
+      <c r="D77" s="7">
+        <v>2981532.507975</v>
+      </c>
+      <c r="E77" s="5">
+        <v>8.9849999999999999E-3</v>
+      </c>
+      <c r="F77" s="5">
+        <v>0.98169899999999999</v>
+      </c>
+      <c r="G77" s="5">
+        <v>0.13652500000000001</v>
+      </c>
+      <c r="H77" s="5">
+        <v>3.7886999999999997E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>10</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C78" t="b">
+        <v>1</v>
+      </c>
+      <c r="D78" s="7">
+        <v>2981532.507975</v>
+      </c>
+      <c r="E78" s="5">
+        <v>8.9849999999999999E-3</v>
+      </c>
+      <c r="F78" s="5">
+        <v>0.98169899999999999</v>
+      </c>
+      <c r="G78" s="5">
+        <v>0.13652500000000001</v>
+      </c>
+      <c r="H78" s="5">
+        <v>3.7886999999999997E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>28</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C79" t="b">
+        <v>1</v>
+      </c>
+      <c r="D79" s="7">
+        <v>2981532.507975</v>
+      </c>
+      <c r="E79" s="5">
+        <v>8.9849999999999999E-3</v>
+      </c>
+      <c r="F79" s="5">
+        <v>0.98169899999999999</v>
+      </c>
+      <c r="G79" s="5">
+        <v>0.13652500000000001</v>
+      </c>
+      <c r="H79" s="5">
+        <v>3.7886999999999997E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>48</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C80" t="b">
+        <v>1</v>
+      </c>
+      <c r="D80" s="7">
+        <v>2981532.507975</v>
+      </c>
+      <c r="E80" s="5">
+        <v>8.9849999999999999E-3</v>
+      </c>
+      <c r="F80" s="5">
+        <v>0.98169899999999999</v>
+      </c>
+      <c r="G80" s="5">
+        <v>0.13652500000000001</v>
+      </c>
+      <c r="H80" s="5">
+        <v>3.7886999999999997E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>77</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C81" t="b">
+        <v>1</v>
+      </c>
+      <c r="D81" s="7">
+        <v>2981532.507975</v>
+      </c>
+      <c r="E81" s="5">
+        <v>8.9849999999999999E-3</v>
+      </c>
+      <c r="F81" s="5">
+        <v>0.98169899999999999</v>
+      </c>
+      <c r="G81" s="5">
+        <v>0.13652500000000001</v>
+      </c>
+      <c r="H81" s="5">
+        <v>3.7886999999999997E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>79</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C82" t="b">
+        <v>1</v>
+      </c>
+      <c r="D82" s="7">
+        <v>2981532.507975</v>
+      </c>
+      <c r="E82" s="5">
+        <v>8.9849999999999999E-3</v>
+      </c>
+      <c r="F82" s="5">
+        <v>0.98169899999999999</v>
+      </c>
+      <c r="G82" s="5">
+        <v>0.13652500000000001</v>
+      </c>
+      <c r="H82" s="5">
+        <v>3.7886999999999997E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>50</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C83" t="b">
+        <v>1</v>
+      </c>
+      <c r="D83" s="7">
+        <v>2982106.0610859999</v>
+      </c>
+      <c r="E83" s="5">
+        <v>9.1789999999999997E-3</v>
+      </c>
+      <c r="F83" s="5">
+        <v>0.98361200000000004</v>
+      </c>
+      <c r="G83" s="5">
+        <v>0.123804</v>
+      </c>
+      <c r="H83" s="5">
+        <v>3.3789E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>89</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C84" t="b">
+        <v>1</v>
+      </c>
+      <c r="D84" s="7">
+        <v>2982180.9504089998</v>
+      </c>
+      <c r="E84" s="5">
+        <v>9.2049999999999996E-3</v>
+      </c>
+      <c r="F84" s="5">
+        <v>0.779636</v>
+      </c>
+      <c r="G84" s="5">
+        <v>0.71310399999999996</v>
+      </c>
+      <c r="H84" s="5">
+        <v>0.54590399999999994</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>49</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C85" t="b">
+        <v>1</v>
+      </c>
+      <c r="D85" s="7">
+        <v>2982229.106712</v>
+      </c>
+      <c r="E85" s="5">
+        <v>9.221E-3</v>
+      </c>
+      <c r="F85" s="5">
+        <v>0.98034600000000005</v>
+      </c>
+      <c r="G85" s="5">
+        <v>0.145236</v>
+      </c>
+      <c r="H85" s="5">
+        <v>4.0842999999999997E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>54</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C86" t="b">
+        <v>1</v>
+      </c>
+      <c r="D86" s="7">
+        <v>2983814.1977969999</v>
+      </c>
+      <c r="E86" s="5">
+        <v>9.757E-3</v>
+      </c>
+      <c r="F86" s="5">
+        <v>0.81152199999999997</v>
+      </c>
+      <c r="G86" s="5">
+        <v>0.54967100000000002</v>
+      </c>
+      <c r="H86" s="5">
+        <v>0.44261899999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>13</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C87" t="b">
+        <v>1</v>
+      </c>
+      <c r="D87" s="7">
+        <v>2984030.5865130001</v>
+      </c>
+      <c r="E87" s="5">
+        <v>9.8300000000000002E-3</v>
+      </c>
+      <c r="F87" s="5">
+        <v>0.98357300000000003</v>
+      </c>
+      <c r="G87" s="5">
+        <v>0.123859</v>
+      </c>
+      <c r="H87" s="5">
+        <v>3.3805000000000002E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>45</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C88" t="b">
+        <v>1</v>
+      </c>
+      <c r="D88" s="7">
+        <v>2984418.1378950002</v>
+      </c>
+      <c r="E88" s="5">
+        <v>9.9620000000000004E-3</v>
+      </c>
+      <c r="F88" s="5">
+        <v>0.77263099999999996</v>
+      </c>
+      <c r="G88" s="5">
+        <v>0.71817299999999995</v>
+      </c>
+      <c r="H88" s="5">
+        <v>0.59762899999999997</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>75</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C89" t="b">
+        <v>1</v>
+      </c>
+      <c r="D89" s="7">
+        <v>2984603.2617179998</v>
+      </c>
+      <c r="E89" s="5">
+        <v>1.0024E-2</v>
+      </c>
+      <c r="F89" s="5">
+        <v>0.764463</v>
+      </c>
+      <c r="G89" s="5">
+        <v>0.781443</v>
+      </c>
+      <c r="H89" s="5">
+        <v>0.59878900000000002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>63</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C90" t="b">
+        <v>1</v>
+      </c>
+      <c r="D90" s="7">
+        <v>2984702.913065</v>
+      </c>
+      <c r="E90" s="5">
+        <v>1.0057999999999999E-2</v>
+      </c>
+      <c r="F90" s="5">
+        <v>0.981576</v>
+      </c>
+      <c r="G90" s="5">
+        <v>0.137212</v>
+      </c>
+      <c r="H90" s="5">
+        <v>3.8155000000000001E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>70</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C91" t="b">
+        <v>1</v>
+      </c>
+      <c r="D91" s="7">
+        <v>2984753.1159999999</v>
+      </c>
+      <c r="E91" s="5">
+        <v>1.0075000000000001E-2</v>
+      </c>
+      <c r="F91" s="5">
+        <v>0.77743200000000001</v>
+      </c>
+      <c r="G91" s="5">
+        <v>0.70449700000000004</v>
+      </c>
+      <c r="H91" s="5">
+        <v>0.58140700000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>37</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C92" t="b">
+        <v>1</v>
+      </c>
+      <c r="D92" s="7">
+        <v>2985757.2390939998</v>
+      </c>
+      <c r="E92" s="5">
+        <v>1.0415000000000001E-2</v>
+      </c>
+      <c r="F92" s="5">
+        <v>0.83884300000000001</v>
+      </c>
+      <c r="G92" s="5">
+        <v>0.54459299999999999</v>
+      </c>
+      <c r="H92" s="5">
+        <v>0.39587499999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>80</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C93" t="b">
+        <v>1</v>
+      </c>
+      <c r="D93" s="7">
+        <v>2986638.5491530001</v>
+      </c>
+      <c r="E93" s="5">
+        <v>1.0713E-2</v>
+      </c>
+      <c r="F93" s="5">
+        <v>0.76128499999999999</v>
+      </c>
+      <c r="G93" s="5">
+        <v>0.745641</v>
+      </c>
+      <c r="H93" s="5">
+        <v>0.62529199999999996</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>4</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C94" t="b">
+        <v>1</v>
+      </c>
+      <c r="D94" s="7">
+        <v>2987118.651505</v>
+      </c>
+      <c r="E94" s="5">
+        <v>1.0874999999999999E-2</v>
+      </c>
+      <c r="F94" s="5">
+        <v>0.80573600000000001</v>
+      </c>
+      <c r="G94" s="5">
+        <v>0.82168600000000003</v>
+      </c>
+      <c r="H94" s="5">
+        <v>0.49834899999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>53</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C95" t="b">
+        <v>1</v>
+      </c>
+      <c r="D95" s="7">
+        <v>2987335.357963</v>
+      </c>
+      <c r="E95" s="5">
+        <v>1.0949E-2</v>
+      </c>
+      <c r="F95" s="5">
+        <v>0.78664599999999996</v>
+      </c>
+      <c r="G95" s="5">
+        <v>0.650783</v>
+      </c>
+      <c r="H95" s="5">
+        <v>0.54055500000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>92</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C96" t="b">
+        <v>1</v>
+      </c>
+      <c r="D96" s="7">
+        <v>2991080.503151</v>
+      </c>
+      <c r="E96" s="5">
+        <v>1.2215999999999999E-2</v>
+      </c>
+      <c r="F96" s="5">
+        <v>0.80151799999999995</v>
+      </c>
+      <c r="G96" s="5">
+        <v>0.59814100000000003</v>
+      </c>
+      <c r="H96" s="5">
+        <v>0.47512500000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>78</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C97" t="b">
+        <v>1</v>
+      </c>
+      <c r="D97" s="7">
+        <v>3007336.5054390002</v>
+      </c>
+      <c r="E97" s="5">
+        <v>1.7717E-2</v>
+      </c>
+      <c r="F97" s="5">
+        <v>0.78766000000000003</v>
+      </c>
+      <c r="G97" s="5">
+        <v>0.71397600000000006</v>
+      </c>
+      <c r="H97" s="5">
+        <v>0.56588499999999997</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>52</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C98" t="b">
+        <v>1</v>
+      </c>
+      <c r="D98" s="7">
+        <v>3031045.663251</v>
+      </c>
+      <c r="E98" s="5">
+        <v>2.5741E-2</v>
+      </c>
+      <c r="F98" s="5">
+        <v>0.79834499999999997</v>
+      </c>
+      <c r="G98" s="5">
+        <v>0.80952500000000005</v>
+      </c>
+      <c r="H98" s="5">
+        <v>0.53983999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99">
         <v>85</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C74" t="b">
-        <v>1</v>
-      </c>
-      <c r="D74" s="7">
+      <c r="C99" t="b">
+        <v>1</v>
+      </c>
+      <c r="D99" s="7">
         <v>3031946.235905</v>
       </c>
-      <c r="E74" s="5">
+      <c r="E99" s="5">
         <v>2.6046E-2</v>
       </c>
-      <c r="F74" s="5">
+      <c r="F99" s="5">
         <v>0.75765099999999996</v>
       </c>
-      <c r="G74" s="5">
+      <c r="G99" s="5">
         <v>0.84905799999999998</v>
       </c>
-      <c r="H74" s="5">
+      <c r="H99" s="5">
         <v>0.66247299999999998</v>
       </c>
     </row>

--- a/maps/AZ/AZ20C_energies.xlsx
+++ b/maps/AZ/AZ20C_energies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/AZ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF24B225-21DC-6345-9501-DB1102BAE027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0981DA8D-F224-F040-AD1E-F50D34C939E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="560" windowWidth="27640" windowHeight="17440" xr2:uid="{95FC3DAC-F24A-7C41-AFDA-0418D017069F}"/>
+    <workbookView xWindow="1160" yWindow="560" windowWidth="27640" windowHeight="17440" activeTab="1" xr2:uid="{95FC3DAC-F24A-7C41-AFDA-0418D017069F}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="2" r:id="rId1"/>
@@ -519,7 +519,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -546,10 +546,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -871,7 +867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F745D026-6BA9-AB45-93E7-0E1B1C1D9B8C}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1095,11 +1091,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5CE2F69-B1C4-F145-9310-B57BB43ED826}">
   <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1228,31 +1224,31 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="26">
+      <c r="A5">
         <v>23</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="28">
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
         <v>2964217.7224630001</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="5">
         <v>3.1259999999999999E-3</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="5">
         <v>0.789829</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="5">
         <v>0.64912499999999995</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="5">
         <v>0.53285099999999996</v>
       </c>
-      <c r="I5" s="27"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -1568,10 +1564,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -1594,10 +1590,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -2920,10 +2916,10 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C70" t="b">
         <v>1</v>
@@ -2946,10 +2942,10 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C71" t="b">
         <v>1</v>
@@ -3699,6 +3695,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I99">
+    <sortCondition ref="D2:D99"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/maps/AZ/AZ20C_energies.xlsx
+++ b/maps/AZ/AZ20C_energies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/AZ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0981DA8D-F224-F040-AD1E-F50D34C939E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273C5632-5AF3-F14C-B533-C3AD1E875537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="560" windowWidth="27640" windowHeight="17440" activeTab="1" xr2:uid="{95FC3DAC-F24A-7C41-AFDA-0418D017069F}"/>
   </bookViews>
@@ -466,7 +466,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -482,6 +482,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,7 +525,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -546,6 +552,10 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1095,7 +1105,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M9" sqref="M9"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1224,31 +1234,31 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="26">
         <v>23</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="C5" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="28">
         <v>2964217.7224630001</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="29">
         <v>3.1259999999999999E-3</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="29">
         <v>0.789829</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="29">
         <v>0.64912499999999995</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="29">
         <v>0.53285099999999996</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">

--- a/maps/AZ/AZ20C_energies.xlsx
+++ b/maps/AZ/AZ20C_energies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/AZ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273C5632-5AF3-F14C-B533-C3AD1E875537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A73E9E8-B747-5D48-89BC-B14E3A407763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="560" windowWidth="27640" windowHeight="17440" activeTab="1" xr2:uid="{95FC3DAC-F24A-7C41-AFDA-0418D017069F}"/>
+    <workbookView xWindow="1420" yWindow="560" windowWidth="27640" windowHeight="17440" xr2:uid="{95FC3DAC-F24A-7C41-AFDA-0418D017069F}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="2" r:id="rId1"/>
@@ -877,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F745D026-6BA9-AB45-93E7-0E1B1C1D9B8C}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -914,19 +914,19 @@
         <v>83</v>
       </c>
       <c r="B4" s="7">
-        <f>MIN(DATA!E$2:E$126)</f>
+        <f>MIN(DATA!E$2:E$101)</f>
         <v>0</v>
       </c>
       <c r="C4" s="7">
-        <f>MIN(DATA!F$2:F$126)</f>
+        <f>MIN(DATA!F$2:F$101)</f>
         <v>0.75765099999999996</v>
       </c>
       <c r="D4" s="7">
-        <f>MIN(DATA!G$2:G$126)</f>
+        <f>MIN(DATA!G$2:G$101)</f>
         <v>0</v>
       </c>
       <c r="E4" s="7">
-        <f>MIN(DATA!H$2:H$126)</f>
+        <f>MIN(DATA!H$2:H$101)</f>
         <v>0</v>
       </c>
     </row>
@@ -935,19 +935,19 @@
         <v>84</v>
       </c>
       <c r="B5" s="7">
-        <f>MAX(DATA!E$2:E$126)</f>
+        <f>MAX(DATA!E$2:E$101)</f>
         <v>2.6046E-2</v>
       </c>
       <c r="C5" s="7">
-        <f>MAX(DATA!F$2:F$126)</f>
+        <f>MAX(DATA!F$2:F$101)</f>
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <f>MAX(DATA!G$2:G$126)</f>
+        <f>MAX(DATA!G$2:G$101)</f>
         <v>0.84905799999999998</v>
       </c>
       <c r="E5" s="7">
-        <f>MAX(DATA!H$2:H$126)</f>
+        <f>MAX(DATA!H$2:H$101)</f>
         <v>0.66247299999999998</v>
       </c>
     </row>
@@ -956,19 +956,19 @@
         <v>85</v>
       </c>
       <c r="B6" s="7">
-        <f>AVERAGE(DATA!E$2:E$126)</f>
+        <f>AVERAGE(DATA!E$2:E$101)</f>
         <v>7.6533367346938797E-3</v>
       </c>
       <c r="C6" s="7">
-        <f>AVERAGE(DATA!F$2:F$126)</f>
+        <f>AVERAGE(DATA!F$2:F$101)</f>
         <v>0.90478279591836819</v>
       </c>
       <c r="D6" s="7">
-        <f>AVERAGE(DATA!G$2:G$126)</f>
+        <f>AVERAGE(DATA!G$2:G$101)</f>
         <v>0.37239824489795886</v>
       </c>
       <c r="E6" s="7">
-        <f>AVERAGE(DATA!H$2:H$126)</f>
+        <f>AVERAGE(DATA!H$2:H$101)</f>
         <v>0.23270855102040808</v>
       </c>
     </row>
@@ -977,19 +977,19 @@
         <v>86</v>
       </c>
       <c r="B7" s="7">
-        <f>MEDIAN(DATA!E$2:E$126)</f>
+        <f>MEDIAN(DATA!E$2:E$101)</f>
         <v>7.8385E-3</v>
       </c>
       <c r="C7" s="7">
-        <f>MEDIAN(DATA!F$2:F$126)</f>
+        <f>MEDIAN(DATA!F$2:F$101)</f>
         <v>0.94670200000000004</v>
       </c>
       <c r="D7" s="7">
-        <f>MEDIAN(DATA!G$2:G$126)</f>
+        <f>MEDIAN(DATA!G$2:G$101)</f>
         <v>0.32064100000000001</v>
       </c>
       <c r="E7" s="7">
-        <f>MEDIAN(DATA!H$2:H$126)</f>
+        <f>MEDIAN(DATA!H$2:H$101)</f>
         <v>0.11714050000000001</v>
       </c>
     </row>
@@ -998,19 +998,19 @@
         <v>87</v>
       </c>
       <c r="B8" s="10">
-        <f>STDEV(DATA!E$2:E$126)</f>
+        <f>STDEV(DATA!E$2:E$101)</f>
         <v>3.6297753784238357E-3</v>
       </c>
       <c r="C8" s="10">
-        <f>STDEV(DATA!F$2:F$126)</f>
+        <f>STDEV(DATA!F$2:F$101)</f>
         <v>8.0893739246352597E-2</v>
       </c>
       <c r="D8" s="10">
-        <f>STDEV(DATA!G$2:G$126)</f>
+        <f>STDEV(DATA!G$2:G$101)</f>
         <v>0.2255393438653619</v>
       </c>
       <c r="E8" s="10">
-        <f>STDEV(DATA!H$2:H$126)</f>
+        <f>STDEV(DATA!H$2:H$101)</f>
         <v>0.2089343561575048</v>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
         <v>91</v>
       </c>
       <c r="D13" s="13">
-        <f>COUNTIF(DATA!E2:E126, "&lt;0.01")</f>
+        <f>COUNTIF(DATA!E2:E101, "&lt;0.01")</f>
         <v>87</v>
       </c>
       <c r="E13" s="17">
@@ -1071,7 +1071,7 @@
         <v>92</v>
       </c>
       <c r="D14" s="13">
-        <f>COUNTIF(DATA!F2:F126, "&gt;0.95")</f>
+        <f>COUNTIF(DATA!F2:F101, "&gt;0.95")</f>
         <v>36</v>
       </c>
       <c r="E14" s="17">
@@ -1084,7 +1084,7 @@
         <v>97</v>
       </c>
       <c r="D15">
-        <f>COUNTIF(DATA!C2:C126, FALSE)</f>
+        <f>COUNTIF(DATA!C2:C101, FALSE)</f>
         <v>1</v>
       </c>
       <c r="E15" s="17">
@@ -1101,7 +1101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5CE2F69-B1C4-F145-9310-B57BB43ED826}">
   <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/maps/AZ/AZ20C_energies.xlsx
+++ b/maps/AZ/AZ20C_energies.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10419"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/AZ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A73E9E8-B747-5D48-89BC-B14E3A407763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A3E40C-A281-FD47-B6D7-C6545FCC7684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="560" windowWidth="27640" windowHeight="17440" xr2:uid="{95FC3DAC-F24A-7C41-AFDA-0418D017069F}"/>
+    <workbookView xWindow="1180" yWindow="560" windowWidth="27640" windowHeight="17440" activeTab="1" xr2:uid="{95FC3DAC-F24A-7C41-AFDA-0418D017069F}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="2" r:id="rId1"/>
     <sheet name="DATA" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="AZ20C_energies" localSheetId="1">DATA!$A$1:$I$99</definedName>
+    <definedName name="AZ20C_energies" localSheetId="1">DATA!$A$1:$I$86</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="111">
   <si>
     <t>#</t>
   </si>
@@ -92,9 +92,6 @@
     <t>AZ20C_I070K01N09</t>
   </si>
   <si>
-    <t>AZ20C_I096K01N09</t>
-  </si>
-  <si>
     <t>AZ20C_I022K01N09</t>
   </si>
   <si>
@@ -107,18 +104,12 @@
     <t>AZ20C_I024K01N09</t>
   </si>
   <si>
-    <t>AZ20C_I073K01N09</t>
-  </si>
-  <si>
     <t>AZ20C_I020K01N09</t>
   </si>
   <si>
     <t>AZ20C_I050K01N09</t>
   </si>
   <si>
-    <t>AZ20C_I032K01N09</t>
-  </si>
-  <si>
     <t>AZ20C_I058K01N09</t>
   </si>
   <si>
@@ -188,9 +179,6 @@
     <t>AZ20C_I011K01N09</t>
   </si>
   <si>
-    <t>AZ20C_I025K01N09</t>
-  </si>
-  <si>
     <t>AZ20C_I028K01N09</t>
   </si>
   <si>
@@ -200,9 +188,6 @@
     <t>AZ20C_I034K01N09</t>
   </si>
   <si>
-    <t>AZ20C_I037K01N09</t>
-  </si>
-  <si>
     <t>AZ20C_I054K01N09</t>
   </si>
   <si>
@@ -227,9 +212,6 @@
     <t>AZ20C_I043K01N09</t>
   </si>
   <si>
-    <t>AZ20C_I087K01N09</t>
-  </si>
-  <si>
     <t>AZ20C_I071K01N09</t>
   </si>
   <si>
@@ -260,15 +242,9 @@
     <t>AZ20C_I047K01N09</t>
   </si>
   <si>
-    <t>AZ20C_I076K01N09</t>
-  </si>
-  <si>
     <t>AZ20C_I078K01N09</t>
   </si>
   <si>
-    <t>AZ20C_I049K01N09</t>
-  </si>
-  <si>
     <t>AZ20C_I088K01N09</t>
   </si>
   <si>
@@ -287,9 +263,6 @@
     <t>AZ20C_I062K01N09</t>
   </si>
   <si>
-    <t>AZ20C_I069K01N09</t>
-  </si>
-  <si>
     <t>AZ20C_I036K01N09</t>
   </si>
   <si>
@@ -299,18 +272,12 @@
     <t>AZ20C_I003K01N09</t>
   </si>
   <si>
-    <t>AZ20C_I052K01N09</t>
-  </si>
-  <si>
     <t>AZ20C_I091K01N09</t>
   </si>
   <si>
     <t>AZ20C_I051K01N09</t>
   </si>
   <si>
-    <t>AZ20C_I084K01N09</t>
-  </si>
-  <si>
     <t>min</t>
   </si>
   <si>
@@ -356,9 +323,6 @@
     <t>-# not contiguous</t>
   </si>
   <si>
-    <t>Lowest: 1-100, 1-1000</t>
-  </si>
-  <si>
     <t>AZ20C_I001K01N09</t>
   </si>
   <si>
@@ -371,9 +335,6 @@
     <t>AZ20C_I046K01N09</t>
   </si>
   <si>
-    <t>AZ20C_I041K01N09</t>
-  </si>
-  <si>
     <t>AZ20C_I092K01N09</t>
   </si>
   <si>
@@ -398,9 +359,6 @@
     <t>AZ20C_I045K01N09</t>
   </si>
   <si>
-    <t>AZ20C_I013K01N09</t>
-  </si>
-  <si>
     <t>AZ20C_I061K01N09</t>
   </si>
   <si>
@@ -413,9 +371,6 @@
     <t>AZ20C_I059K01N09</t>
   </si>
   <si>
-    <t>AZ20C_I016K01N09</t>
-  </si>
-  <si>
     <t>AZ20C_I085K01N09</t>
   </si>
   <si>
@@ -431,7 +386,13 @@
     <t>AZ20C_I053K01N09</t>
   </si>
   <si>
-    <t>AZ20C_I077K01N09</t>
+    <t>Lowest: 1-100</t>
+  </si>
+  <si>
+    <t>AZ20C_I056K01N09</t>
+  </si>
+  <si>
+    <t>AZ20C_I042K01N09</t>
   </si>
 </sst>
 </file>
@@ -466,7 +427,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -482,12 +443,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,10 +507,10 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -877,7 +832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F745D026-6BA9-AB45-93E7-0E1B1C1D9B8C}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -885,13 +840,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B1" s="11">
         <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -911,107 +866,107 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B4" s="7">
-        <f>MIN(DATA!E$2:E$101)</f>
+        <f>MIN(DATA!E$2:E$88)</f>
         <v>0</v>
       </c>
       <c r="C4" s="7">
-        <f>MIN(DATA!F$2:F$101)</f>
-        <v>0.75765099999999996</v>
+        <f>MIN(DATA!F$2:F$88)</f>
+        <v>0.67989500000000003</v>
       </c>
       <c r="D4" s="7">
-        <f>MIN(DATA!G$2:G$101)</f>
+        <f>MIN(DATA!G$2:G$88)</f>
         <v>0</v>
       </c>
       <c r="E4" s="7">
-        <f>MIN(DATA!H$2:H$101)</f>
+        <f>MIN(DATA!H$2:H$88)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B5" s="7">
-        <f>MAX(DATA!E$2:E$101)</f>
-        <v>2.6046E-2</v>
+        <f>MAX(DATA!E$2:E$88)</f>
+        <v>0.107511</v>
       </c>
       <c r="C5" s="7">
-        <f>MAX(DATA!F$2:F$101)</f>
+        <f>MAX(DATA!F$2:F$88)</f>
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <f>MAX(DATA!G$2:G$101)</f>
-        <v>0.84905799999999998</v>
+        <f>MAX(DATA!G$2:G$88)</f>
+        <v>0.95457199999999998</v>
       </c>
       <c r="E5" s="7">
-        <f>MAX(DATA!H$2:H$101)</f>
-        <v>0.66247299999999998</v>
+        <f>MAX(DATA!H$2:H$88)</f>
+        <v>0.85907699999999998</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B6" s="7">
-        <f>AVERAGE(DATA!E$2:E$101)</f>
-        <v>7.6533367346938797E-3</v>
+        <f>AVERAGE(DATA!E$2:E$88)</f>
+        <v>1.2803188235294118E-2</v>
       </c>
       <c r="C6" s="7">
-        <f>AVERAGE(DATA!F$2:F$101)</f>
-        <v>0.90478279591836819</v>
+        <f>AVERAGE(DATA!F$2:F$88)</f>
+        <v>0.89036481176470605</v>
       </c>
       <c r="D6" s="7">
-        <f>AVERAGE(DATA!G$2:G$101)</f>
-        <v>0.37239824489795886</v>
+        <f>AVERAGE(DATA!G$2:G$88)</f>
+        <v>0.44848727058823545</v>
       </c>
       <c r="E6" s="7">
-        <f>AVERAGE(DATA!H$2:H$101)</f>
-        <v>0.23270855102040808</v>
+        <f>AVERAGE(DATA!H$2:H$88)</f>
+        <v>0.27721968235294125</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B7" s="7">
-        <f>MEDIAN(DATA!E$2:E$101)</f>
-        <v>7.8385E-3</v>
+        <f>MEDIAN(DATA!E$2:E$88)</f>
+        <v>8.2850000000000007E-3</v>
       </c>
       <c r="C7" s="7">
-        <f>MEDIAN(DATA!F$2:F$101)</f>
-        <v>0.94670200000000004</v>
+        <f>MEDIAN(DATA!F$2:F$88)</f>
+        <v>0.91134999999999999</v>
       </c>
       <c r="D7" s="7">
-        <f>MEDIAN(DATA!G$2:G$101)</f>
-        <v>0.32064100000000001</v>
+        <f>MEDIAN(DATA!G$2:G$88)</f>
+        <v>0.38442300000000001</v>
       </c>
       <c r="E7" s="7">
-        <f>MEDIAN(DATA!H$2:H$101)</f>
-        <v>0.11714050000000001</v>
+        <f>MEDIAN(DATA!H$2:H$88)</f>
+        <v>0.21945899999999999</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B8" s="10">
-        <f>STDEV(DATA!E$2:E$101)</f>
-        <v>3.6297753784238357E-3</v>
+        <f>STDEV(DATA!E$2:E$88)</f>
+        <v>1.3769575599931935E-2</v>
       </c>
       <c r="C8" s="10">
-        <f>STDEV(DATA!F$2:F$101)</f>
-        <v>8.0893739246352597E-2</v>
+        <f>STDEV(DATA!F$2:F$88)</f>
+        <v>6.8753698318967341E-2</v>
       </c>
       <c r="D8" s="10">
-        <f>STDEV(DATA!G$2:G$101)</f>
-        <v>0.2255393438653619</v>
+        <f>STDEV(DATA!G$2:G$88)</f>
+        <v>0.20251152136497497</v>
       </c>
       <c r="E8" s="10">
-        <f>STDEV(DATA!H$2:H$101)</f>
-        <v>0.2089343561575048</v>
+        <f>STDEV(DATA!H$2:H$88)</f>
+        <v>0.19071088341319986</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1023,15 +978,15 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D11" s="13">
         <v>98</v>
@@ -1039,7 +994,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D12" s="11">
         <f>B1-D11</f>
@@ -1050,46 +1005,46 @@
         <v>0.02</v>
       </c>
       <c r="F12" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D13" s="13">
-        <f>COUNTIF(DATA!E2:E101, "&lt;0.01")</f>
-        <v>87</v>
+        <f>COUNTIF(DATA!E2:E88, "&lt;0.01")</f>
+        <v>62</v>
       </c>
       <c r="E13" s="17">
         <f>D13/D11</f>
-        <v>0.88775510204081631</v>
+        <v>0.63265306122448983</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D14" s="13">
-        <f>COUNTIF(DATA!F2:F101, "&gt;0.95")</f>
-        <v>36</v>
+        <f>COUNTIF(DATA!F2:F88, "&gt;0.95")</f>
+        <v>11</v>
       </c>
       <c r="E14" s="17">
         <f>D14/D13</f>
-        <v>0.41379310344827586</v>
+        <v>0.17741935483870969</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D15">
-        <f>COUNTIF(DATA!C2:C101, FALSE)</f>
-        <v>1</v>
+        <f>COUNTIF(DATA!C2:C88, FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E15" s="17">
         <f>D15/D11</f>
-        <v>1.020408163265306E-2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1099,13 +1054,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5CE2F69-B1C4-F145-9310-B57BB43ED826}">
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1117,7 +1072,7 @@
     <col min="5" max="5" width="6.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="6.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1151,16 +1106,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="18">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="C2" s="18" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="20">
-        <v>2954981.8185149999</v>
+        <v>2949530.8440100001</v>
       </c>
       <c r="E2" s="21">
         <v>0</v>
@@ -1175,115 +1130,113 @@
         <v>0</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="22">
-        <v>2</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" s="24">
-        <v>2956392.9070870001</v>
-      </c>
-      <c r="E3" s="25">
-        <v>4.7800000000000002E-4</v>
-      </c>
-      <c r="F3" s="25">
-        <v>0.94940999999999998</v>
-      </c>
-      <c r="G3" s="25">
-        <v>0.26863799999999999</v>
-      </c>
-      <c r="H3" s="25">
-        <v>0.114676</v>
-      </c>
-      <c r="I3" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="A3" s="26">
+        <v>20</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="28">
+        <v>2951896.491928</v>
+      </c>
+      <c r="E3" s="29">
+        <v>8.0199999999999998E-4</v>
+      </c>
+      <c r="F3" s="29">
+        <v>0.95002500000000001</v>
+      </c>
+      <c r="G3" s="29">
+        <v>0.25067</v>
+      </c>
+      <c r="H3" s="29">
+        <v>0.113319</v>
+      </c>
+      <c r="I3" s="27"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>2963718.1379829999</v>
+        <v>2954746.1127929999</v>
       </c>
       <c r="E4" s="5">
-        <v>2.9559999999999999E-3</v>
+        <v>1.768E-3</v>
       </c>
       <c r="F4" s="5">
-        <v>0.95617799999999997</v>
+        <v>0.94872599999999996</v>
       </c>
       <c r="G4" s="5">
-        <v>0.23596200000000001</v>
+        <v>0.29356700000000002</v>
       </c>
       <c r="H4" s="5">
-        <v>9.7904000000000005E-2</v>
+        <v>0.113692</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="26">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C5" s="26" t="b">
         <v>1</v>
       </c>
       <c r="D5" s="28">
-        <v>2964217.7224630001</v>
+        <v>2962398.1586879999</v>
       </c>
       <c r="E5" s="29">
-        <v>3.1259999999999999E-3</v>
+        <v>4.3620000000000004E-3</v>
       </c>
       <c r="F5" s="29">
-        <v>0.789829</v>
+        <v>0.96755199999999997</v>
       </c>
       <c r="G5" s="29">
-        <v>0.64912499999999995</v>
+        <v>0.182866</v>
       </c>
       <c r="H5" s="29">
-        <v>0.53285099999999996</v>
+        <v>7.1692000000000006E-2</v>
       </c>
       <c r="I5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>2964388.554337</v>
+        <v>2962913.7448220002</v>
       </c>
       <c r="E6" s="5">
-        <v>3.1830000000000001E-3</v>
+        <v>4.5370000000000002E-3</v>
       </c>
       <c r="F6" s="5">
-        <v>0.95040599999999997</v>
+        <v>0.954067</v>
       </c>
       <c r="G6" s="5">
-        <v>0.26667800000000003</v>
+        <v>0.24387300000000001</v>
       </c>
       <c r="H6" s="5">
-        <v>0.11226800000000001</v>
+        <v>0.104266</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1291,2422 +1244,2087 @@
         <v>83</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>2965082.5980099998</v>
+        <v>2962931.107088</v>
       </c>
       <c r="E7" s="5">
-        <v>3.418E-3</v>
+        <v>4.5430000000000002E-3</v>
       </c>
       <c r="F7" s="5">
-        <v>0.94949600000000001</v>
+        <v>0.91544099999999995</v>
       </c>
       <c r="G7" s="5">
-        <v>0.26469599999999999</v>
+        <v>0.39232299999999998</v>
       </c>
       <c r="H7" s="5">
-        <v>0.1148</v>
+        <v>0.20727999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>2965388.82632</v>
+        <v>2963618.258715</v>
       </c>
       <c r="E8" s="5">
-        <v>3.522E-3</v>
+        <v>4.7759999999999999E-3</v>
       </c>
       <c r="F8" s="5">
-        <v>0.95225099999999996</v>
+        <v>0.89907000000000004</v>
       </c>
       <c r="G8" s="5">
-        <v>0.25750400000000001</v>
+        <v>0.38382500000000003</v>
       </c>
       <c r="H8" s="5">
-        <v>0.107888</v>
+        <v>0.25023899999999999</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>2965822.7196610002</v>
+        <v>2964105.2686939999</v>
       </c>
       <c r="E9" s="5">
-        <v>3.669E-3</v>
+        <v>4.9410000000000001E-3</v>
       </c>
       <c r="F9" s="5">
-        <v>0.82228800000000002</v>
+        <v>0.92692799999999997</v>
       </c>
       <c r="G9" s="5">
-        <v>0.49973299999999998</v>
+        <v>0.30286000000000002</v>
       </c>
       <c r="H9" s="5">
-        <v>0.40486299999999997</v>
+        <v>0.172712</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>93</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
-        <v>2966095.65546</v>
-      </c>
-      <c r="E10" s="5">
-        <v>3.761E-3</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0.95527600000000001</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0.24223700000000001</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0.10052700000000001</v>
+      <c r="A10" s="22">
+        <v>6</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="24">
+        <v>2964971.2395370002</v>
+      </c>
+      <c r="E10" s="25">
+        <v>5.2350000000000001E-3</v>
+      </c>
+      <c r="F10" s="25">
+        <v>0.94836500000000001</v>
+      </c>
+      <c r="G10" s="25">
+        <v>0.29972399999999999</v>
+      </c>
+      <c r="H10" s="25">
+        <v>0.11376600000000001</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>2966351.4394760001</v>
+        <v>2965054.5865429998</v>
       </c>
       <c r="E11" s="5">
-        <v>3.8479999999999999E-3</v>
+        <v>5.2630000000000003E-3</v>
       </c>
       <c r="F11" s="5">
-        <v>0.97974700000000003</v>
+        <v>0.94679800000000003</v>
       </c>
       <c r="G11" s="5">
-        <v>0.14694199999999999</v>
+        <v>0.30776500000000001</v>
       </c>
       <c r="H11" s="5">
-        <v>4.1798000000000002E-2</v>
+        <v>0.118108</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>2966479.8412810001</v>
+        <v>2965228.5250070002</v>
       </c>
       <c r="E12" s="5">
-        <v>3.8909999999999999E-3</v>
+        <v>5.3220000000000003E-3</v>
       </c>
       <c r="F12" s="5">
-        <v>0.96894800000000003</v>
+        <v>0.92136300000000004</v>
       </c>
       <c r="G12" s="5">
-        <v>0.19317699999999999</v>
+        <v>0.34973599999999999</v>
       </c>
       <c r="H12" s="5">
-        <v>6.7829E-2</v>
+        <v>0.192051</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>2968065.2419520002</v>
+        <v>2965314.7057039998</v>
       </c>
       <c r="E13" s="5">
-        <v>4.4279999999999996E-3</v>
+        <v>5.3509999999999999E-3</v>
       </c>
       <c r="F13" s="5">
-        <v>0.97943199999999997</v>
+        <v>0.91510999999999998</v>
       </c>
       <c r="G13" s="5">
-        <v>0.15198</v>
+        <v>0.36264600000000002</v>
       </c>
       <c r="H13" s="5">
-        <v>4.2573E-2</v>
+        <v>0.20968899999999999</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>2968964.0992220002</v>
+        <v>2965437.0422740001</v>
       </c>
       <c r="E14" s="5">
-        <v>4.7320000000000001E-3</v>
+        <v>5.3930000000000002E-3</v>
       </c>
       <c r="F14" s="5">
-        <v>0.95415799999999995</v>
+        <v>0.90842999999999996</v>
       </c>
       <c r="G14" s="5">
-        <v>0.23783399999999999</v>
+        <v>0.406472</v>
       </c>
       <c r="H14" s="5">
-        <v>0.10498300000000001</v>
+        <v>0.22362199999999999</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
       <c r="D15" s="7">
-        <v>2969015.6534119998</v>
+        <v>2965575.4442119999</v>
       </c>
       <c r="E15" s="5">
-        <v>4.7489999999999997E-3</v>
+        <v>5.4400000000000004E-3</v>
       </c>
       <c r="F15" s="5">
-        <v>0.77946400000000005</v>
+        <v>0.892208</v>
       </c>
       <c r="G15" s="5">
-        <v>0.66012800000000005</v>
+        <v>0.43288399999999999</v>
       </c>
       <c r="H15" s="5">
-        <v>0.55173399999999995</v>
+        <v>0.26785399999999998</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>2969426.2562489999</v>
+        <v>2965778.5177730001</v>
       </c>
       <c r="E16" s="5">
-        <v>4.888E-3</v>
+        <v>5.509E-3</v>
       </c>
       <c r="F16" s="5">
-        <v>0.95472400000000002</v>
+        <v>0.860406</v>
       </c>
       <c r="G16" s="5">
-        <v>0.225499</v>
+        <v>0.49086400000000002</v>
       </c>
       <c r="H16" s="5">
-        <v>0.103745</v>
+        <v>0.35204000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>2970169.516539</v>
+        <v>2966989.3082260001</v>
       </c>
       <c r="E17" s="5">
-        <v>5.1399999999999996E-3</v>
+        <v>5.9189999999999998E-3</v>
       </c>
       <c r="F17" s="5">
-        <v>0.95525000000000004</v>
+        <v>0.91134999999999999</v>
       </c>
       <c r="G17" s="5">
-        <v>0.22991800000000001</v>
+        <v>0.372278</v>
       </c>
       <c r="H17" s="5">
-        <v>0.101811</v>
+        <v>0.21595800000000001</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
       </c>
       <c r="D18" s="7">
-        <v>2970238.7815700001</v>
+        <v>2966992.5857000002</v>
       </c>
       <c r="E18" s="5">
-        <v>5.1630000000000001E-3</v>
+        <v>5.9199999999999999E-3</v>
       </c>
       <c r="F18" s="5">
-        <v>0.98280599999999996</v>
+        <v>0.89708500000000002</v>
       </c>
       <c r="G18" s="5">
-        <v>0.13103799999999999</v>
+        <v>0.41509200000000002</v>
       </c>
       <c r="H18" s="5">
-        <v>3.5411999999999999E-2</v>
+        <v>0.25733299999999998</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>2970238.7815700001</v>
+        <v>2967743.7389170001</v>
       </c>
       <c r="E19" s="5">
-        <v>5.1630000000000001E-3</v>
+        <v>6.1749999999999999E-3</v>
       </c>
       <c r="F19" s="5">
-        <v>0.98280599999999996</v>
+        <v>0.95384100000000005</v>
       </c>
       <c r="G19" s="5">
-        <v>0.13103799999999999</v>
+        <v>0.24795800000000001</v>
       </c>
       <c r="H19" s="5">
-        <v>3.5411999999999999E-2</v>
+        <v>0.103769</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>2970238.7815700001</v>
+        <v>2967839.565136</v>
       </c>
       <c r="E20" s="5">
-        <v>5.1630000000000001E-3</v>
+        <v>6.2069999999999998E-3</v>
       </c>
       <c r="F20" s="5">
-        <v>0.98280599999999996</v>
+        <v>0.91955500000000001</v>
       </c>
       <c r="G20" s="5">
-        <v>0.13103799999999999</v>
+        <v>0.37864700000000001</v>
       </c>
       <c r="H20" s="5">
-        <v>3.5411999999999999E-2</v>
+        <v>0.19409699999999999</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
       </c>
       <c r="D21" s="7">
-        <v>2970336.1467519999</v>
+        <v>2967905.7409310001</v>
       </c>
       <c r="E21" s="5">
-        <v>5.1960000000000001E-3</v>
+        <v>6.2300000000000003E-3</v>
       </c>
       <c r="F21" s="5">
-        <v>0.87800100000000003</v>
+        <v>0.90839199999999998</v>
       </c>
       <c r="G21" s="5">
-        <v>0.488703</v>
+        <v>0.351387</v>
       </c>
       <c r="H21" s="5">
-        <v>0.30856899999999998</v>
+        <v>0.228658</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>2970855.648172</v>
+        <v>2968170.8438900001</v>
       </c>
       <c r="E22" s="5">
-        <v>5.372E-3</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="F22" s="5">
-        <v>0.89433200000000002</v>
+        <v>0.91139300000000001</v>
       </c>
       <c r="G22" s="5">
-        <v>0.52643300000000004</v>
+        <v>0.38442300000000001</v>
       </c>
       <c r="H22" s="5">
-        <v>0.25020300000000001</v>
+        <v>0.217112</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>2970941.0465119998</v>
+        <v>2968391.5074120001</v>
       </c>
       <c r="E23" s="5">
-        <v>5.4010000000000004E-3</v>
+        <v>6.3940000000000004E-3</v>
       </c>
       <c r="F23" s="5">
-        <v>0.98038000000000003</v>
+        <v>0.92100300000000002</v>
       </c>
       <c r="G23" s="5">
-        <v>0.14688699999999999</v>
+        <v>0.37832700000000002</v>
       </c>
       <c r="H23" s="5">
-        <v>4.0712999999999999E-2</v>
+        <v>0.19122900000000001</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
       </c>
       <c r="D24" s="7">
-        <v>2971134.67882</v>
+        <v>2969537.0705690002</v>
       </c>
       <c r="E24" s="5">
-        <v>5.4660000000000004E-3</v>
+        <v>6.783E-3</v>
       </c>
       <c r="F24" s="5">
-        <v>0.98721899999999996</v>
+        <v>0.93042499999999995</v>
       </c>
       <c r="G24" s="5">
-        <v>0.100601</v>
+        <v>0.35440199999999999</v>
       </c>
       <c r="H24" s="5">
-        <v>2.6262000000000001E-2</v>
+        <v>0.15995300000000001</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>2971193.9089819998</v>
+        <v>2970027.8929940001</v>
       </c>
       <c r="E25" s="5">
-        <v>5.4860000000000004E-3</v>
+        <v>6.9490000000000003E-3</v>
       </c>
       <c r="F25" s="5">
-        <v>0.98498200000000002</v>
+        <v>0.95526500000000003</v>
       </c>
       <c r="G25" s="5">
-        <v>0.11712400000000001</v>
+        <v>0.27422000000000002</v>
       </c>
       <c r="H25" s="5">
-        <v>3.0863000000000002E-2</v>
+        <v>9.7292000000000003E-2</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>2971235.6652529999</v>
+        <v>2970457.1842169999</v>
       </c>
       <c r="E26" s="5">
-        <v>5.4999999999999997E-3</v>
+        <v>7.0949999999999997E-3</v>
       </c>
       <c r="F26" s="5">
-        <v>0.88175300000000001</v>
+        <v>0.91444400000000003</v>
       </c>
       <c r="G26" s="5">
-        <v>0.46043200000000001</v>
+        <v>0.354217</v>
       </c>
       <c r="H26" s="5">
-        <v>0.29933799999999999</v>
+        <v>0.20663899999999999</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
       </c>
       <c r="D27" s="7">
-        <v>2971823.8237419999</v>
+        <v>2970652.1253740001</v>
       </c>
       <c r="E27" s="5">
-        <v>5.7000000000000002E-3</v>
+        <v>7.1609999999999998E-3</v>
       </c>
       <c r="F27" s="5">
-        <v>0.80854800000000004</v>
+        <v>0.90789299999999995</v>
       </c>
       <c r="G27" s="5">
-        <v>0.55955600000000005</v>
+        <v>0.354908</v>
       </c>
       <c r="H27" s="5">
-        <v>0.46722900000000001</v>
+        <v>0.22972999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
       </c>
       <c r="D28" s="7">
-        <v>2972265.783884</v>
+        <v>2970677.609677</v>
       </c>
       <c r="E28" s="5">
-        <v>5.849E-3</v>
+        <v>7.1700000000000002E-3</v>
       </c>
       <c r="F28" s="5">
-        <v>0.91780099999999998</v>
+        <v>0.91057100000000002</v>
       </c>
       <c r="G28" s="5">
-        <v>0.40748099999999998</v>
+        <v>0.34766599999999998</v>
       </c>
       <c r="H28" s="5">
-        <v>0.194157</v>
+        <v>0.22135099999999999</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>2972622.12255</v>
+        <v>2970786.9197180001</v>
       </c>
       <c r="E29" s="5">
-        <v>5.9699999999999996E-3</v>
+        <v>7.2069999999999999E-3</v>
       </c>
       <c r="F29" s="5">
-        <v>0.85739200000000004</v>
+        <v>0.921095</v>
       </c>
       <c r="G29" s="5">
-        <v>0.50881799999999999</v>
+        <v>0.37122300000000003</v>
       </c>
       <c r="H29" s="5">
-        <v>0.36627300000000002</v>
+        <v>0.19023000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="C30" t="b">
         <v>1</v>
       </c>
       <c r="D30" s="7">
-        <v>2973038.1607059999</v>
+        <v>2970789.8102660002</v>
       </c>
       <c r="E30" s="5">
-        <v>6.11E-3</v>
+        <v>7.208E-3</v>
       </c>
       <c r="F30" s="5">
-        <v>0.93844300000000003</v>
+        <v>0.92730400000000002</v>
       </c>
       <c r="G30" s="5">
-        <v>0.34199000000000002</v>
+        <v>0.34210800000000002</v>
       </c>
       <c r="H30" s="5">
-        <v>0.139372</v>
+        <v>0.176875</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>2973429.9425019999</v>
+        <v>2970848.4610270001</v>
       </c>
       <c r="E31" s="5">
-        <v>6.2430000000000003E-3</v>
+        <v>7.2269999999999999E-3</v>
       </c>
       <c r="F31" s="5">
-        <v>0.90910299999999999</v>
+        <v>0.90962600000000005</v>
       </c>
       <c r="G31" s="5">
-        <v>0.40824199999999999</v>
+        <v>0.34924100000000002</v>
       </c>
       <c r="H31" s="5">
-        <v>0.221139</v>
+        <v>0.223991</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="C32" t="b">
         <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>2973450.3091699998</v>
+        <v>2971199.1946399999</v>
       </c>
       <c r="E32" s="5">
-        <v>6.2500000000000003E-3</v>
+        <v>7.3460000000000001E-3</v>
       </c>
       <c r="F32" s="5">
-        <v>0.88913200000000003</v>
+        <v>0.912385</v>
       </c>
       <c r="G32" s="5">
-        <v>0.43958900000000001</v>
+        <v>0.38667200000000002</v>
       </c>
       <c r="H32" s="5">
-        <v>0.28236299999999998</v>
+        <v>0.21732299999999999</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="C33" t="b">
         <v>1</v>
       </c>
       <c r="D33" s="7">
-        <v>2973492.3646320002</v>
+        <v>2971223.2902480001</v>
       </c>
       <c r="E33" s="5">
-        <v>6.2639999999999996E-3</v>
+        <v>7.3550000000000004E-3</v>
       </c>
       <c r="F33" s="5">
-        <v>0.91726799999999997</v>
+        <v>0.90260300000000004</v>
       </c>
       <c r="G33" s="5">
-        <v>0.37850499999999998</v>
+        <v>0.441832</v>
       </c>
       <c r="H33" s="5">
-        <v>0.19992599999999999</v>
+        <v>0.241843</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="C34" t="b">
         <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>2973639.9553430001</v>
+        <v>2971332.7175980001</v>
       </c>
       <c r="E34" s="5">
-        <v>6.3140000000000002E-3</v>
+        <v>7.3920000000000001E-3</v>
       </c>
       <c r="F34" s="5">
-        <v>0.946322</v>
+        <v>0.94948500000000002</v>
       </c>
       <c r="G34" s="5">
-        <v>0.28831499999999999</v>
+        <v>0.27221899999999999</v>
       </c>
       <c r="H34" s="5">
-        <v>0.121909</v>
+        <v>0.114175</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C35" t="b">
         <v>1</v>
       </c>
       <c r="D35" s="7">
-        <v>2974550.9873700002</v>
+        <v>2971332.7175980001</v>
       </c>
       <c r="E35" s="5">
-        <v>6.6220000000000003E-3</v>
+        <v>7.3920000000000001E-3</v>
       </c>
       <c r="F35" s="5">
-        <v>0.98811800000000005</v>
+        <v>0.94948500000000002</v>
       </c>
       <c r="G35" s="5">
-        <v>9.2979999999999993E-2</v>
+        <v>0.27221899999999999</v>
       </c>
       <c r="H35" s="5">
-        <v>2.4428999999999999E-2</v>
+        <v>0.114175</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C36" t="b">
         <v>1</v>
       </c>
       <c r="D36" s="7">
-        <v>2974560.2842179998</v>
+        <v>2971531.7282250002</v>
       </c>
       <c r="E36" s="5">
-        <v>6.6259999999999999E-3</v>
+        <v>7.4590000000000004E-3</v>
       </c>
       <c r="F36" s="5">
-        <v>0.94306100000000004</v>
+        <v>0.91005199999999997</v>
       </c>
       <c r="G36" s="5">
-        <v>0.31209300000000001</v>
+        <v>0.39500200000000002</v>
       </c>
       <c r="H36" s="5">
-        <v>0.12942000000000001</v>
+        <v>0.22456000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C37" t="b">
         <v>1</v>
       </c>
       <c r="D37" s="7">
-        <v>2974578.7785399999</v>
+        <v>2971531.7282250002</v>
       </c>
       <c r="E37" s="5">
-        <v>6.6319999999999999E-3</v>
+        <v>7.4590000000000004E-3</v>
       </c>
       <c r="F37" s="5">
-        <v>0.94307700000000005</v>
+        <v>0.91005199999999997</v>
       </c>
       <c r="G37" s="5">
-        <v>0.311973</v>
+        <v>0.39500200000000002</v>
       </c>
       <c r="H37" s="5">
-        <v>0.129387</v>
+        <v>0.22456000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C38" t="b">
         <v>1</v>
       </c>
       <c r="D38" s="7">
-        <v>2974950.4201159999</v>
+        <v>2972036.2699409998</v>
       </c>
       <c r="E38" s="5">
-        <v>6.7580000000000001E-3</v>
+        <v>7.6299999999999996E-3</v>
       </c>
       <c r="F38" s="5">
-        <v>0.78747199999999995</v>
+        <v>0.91814099999999998</v>
       </c>
       <c r="G38" s="5">
-        <v>0.62547200000000003</v>
+        <v>0.38862600000000003</v>
       </c>
       <c r="H38" s="5">
-        <v>0.51860700000000004</v>
+        <v>0.19642100000000001</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="C39" t="b">
         <v>1</v>
       </c>
       <c r="D39" s="7">
-        <v>2974968.129094</v>
+        <v>2972497.3657650002</v>
       </c>
       <c r="E39" s="5">
-        <v>6.764E-3</v>
+        <v>7.7860000000000004E-3</v>
       </c>
       <c r="F39" s="5">
-        <v>0.78748099999999999</v>
+        <v>0.91431399999999996</v>
       </c>
       <c r="G39" s="5">
-        <v>0.62677700000000003</v>
+        <v>0.37121599999999999</v>
       </c>
       <c r="H39" s="5">
-        <v>0.52093900000000004</v>
+        <v>0.21107799999999999</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C40" t="b">
         <v>1</v>
       </c>
       <c r="D40" s="7">
-        <v>2975756.855401</v>
+        <v>2972624.4082709998</v>
       </c>
       <c r="E40" s="5">
-        <v>7.0309999999999999E-3</v>
+        <v>7.8300000000000002E-3</v>
       </c>
       <c r="F40" s="5">
-        <v>0.94841600000000004</v>
+        <v>0.91159900000000005</v>
       </c>
       <c r="G40" s="5">
-        <v>0.26716200000000001</v>
+        <v>0.37689</v>
       </c>
       <c r="H40" s="5">
-        <v>0.1174</v>
+        <v>0.21925700000000001</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
       </c>
       <c r="D41" s="7">
-        <v>2975946.0500030001</v>
+        <v>2972774.5845659999</v>
       </c>
       <c r="E41" s="5">
-        <v>7.0949999999999997E-3</v>
+        <v>7.8799999999999999E-3</v>
       </c>
       <c r="F41" s="5">
-        <v>0.99261299999999997</v>
+        <v>0.94968300000000005</v>
       </c>
       <c r="G41" s="5">
-        <v>5.5044000000000003E-2</v>
+        <v>0.28529700000000002</v>
       </c>
       <c r="H41" s="5">
-        <v>1.5211000000000001E-2</v>
+        <v>0.112183</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C42" t="b">
         <v>1</v>
       </c>
       <c r="D42" s="7">
-        <v>2975946.0500030001</v>
+        <v>2973024.6159299999</v>
       </c>
       <c r="E42" s="5">
-        <v>7.0949999999999997E-3</v>
+        <v>7.9649999999999999E-3</v>
       </c>
       <c r="F42" s="5">
-        <v>0.99261299999999997</v>
+        <v>0.95305600000000001</v>
       </c>
       <c r="G42" s="5">
-        <v>5.5044000000000003E-2</v>
+        <v>0.27294299999999999</v>
       </c>
       <c r="H42" s="5">
-        <v>1.5211000000000001E-2</v>
+        <v>0.10355399999999999</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="C43" t="b">
         <v>1</v>
       </c>
       <c r="D43" s="7">
-        <v>2975973.5200729999</v>
+        <v>2973266.7508459999</v>
       </c>
       <c r="E43" s="5">
-        <v>7.1040000000000001E-3</v>
+        <v>8.0470000000000003E-3</v>
       </c>
       <c r="F43" s="5">
-        <v>0.92918100000000003</v>
+        <v>0.90425500000000003</v>
       </c>
       <c r="G43" s="5">
-        <v>0.37998199999999999</v>
+        <v>0.41350199999999998</v>
       </c>
       <c r="H43" s="5">
-        <v>0.16351599999999999</v>
+        <v>0.234293</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C44" t="b">
         <v>1</v>
       </c>
       <c r="D44" s="7">
-        <v>2976152.0839140001</v>
+        <v>2973966.3841820001</v>
       </c>
       <c r="E44" s="5">
-        <v>7.1640000000000002E-3</v>
+        <v>8.2850000000000007E-3</v>
       </c>
       <c r="F44" s="5">
-        <v>0.94830199999999998</v>
+        <v>0.95040500000000006</v>
       </c>
       <c r="G44" s="5">
-        <v>0.26924199999999998</v>
+        <v>0.26833200000000001</v>
       </c>
       <c r="H44" s="5">
-        <v>0.11765100000000001</v>
+        <v>0.111829</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="C45" t="b">
         <v>1</v>
       </c>
       <c r="D45" s="7">
-        <v>2976419.352612</v>
+        <v>2973966.3841820001</v>
       </c>
       <c r="E45" s="5">
-        <v>7.2550000000000002E-3</v>
+        <v>8.2850000000000007E-3</v>
       </c>
       <c r="F45" s="5">
-        <v>0.78690599999999999</v>
+        <v>0.95040500000000006</v>
       </c>
       <c r="G45" s="5">
-        <v>0.64540799999999998</v>
+        <v>0.26833200000000001</v>
       </c>
       <c r="H45" s="5">
-        <v>0.54166499999999995</v>
+        <v>0.111829</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="C46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" s="7">
-        <v>2976468.8011489999</v>
+        <v>2974204.3677229998</v>
       </c>
       <c r="E46" s="5">
-        <v>7.2709999999999997E-3</v>
+        <v>8.3649999999999992E-3</v>
       </c>
       <c r="F46" s="5">
-        <v>0.78272699999999995</v>
+        <v>0.91558200000000001</v>
       </c>
       <c r="G46" s="5">
-        <v>0.70563399999999998</v>
+        <v>0.39222800000000002</v>
       </c>
       <c r="H46" s="5">
-        <v>0.53215400000000002</v>
+        <v>0.206903</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="C47" t="b">
         <v>1</v>
       </c>
       <c r="D47" s="7">
-        <v>2976661.401757</v>
+        <v>2974217.8928080001</v>
       </c>
       <c r="E47" s="5">
-        <v>7.3369999999999998E-3</v>
+        <v>8.3700000000000007E-3</v>
       </c>
       <c r="F47" s="5">
-        <v>0.94818899999999995</v>
+        <v>0.91377699999999995</v>
       </c>
       <c r="G47" s="5">
-        <v>0.27443000000000001</v>
+        <v>0.39640599999999998</v>
       </c>
       <c r="H47" s="5">
-        <v>0.117496</v>
+        <v>0.21204000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C48" t="b">
         <v>1</v>
       </c>
       <c r="D48" s="7">
-        <v>2977435.9518900001</v>
+        <v>2974355.09858</v>
       </c>
       <c r="E48" s="5">
-        <v>7.5989999999999999E-3</v>
+        <v>8.4159999999999999E-3</v>
       </c>
       <c r="F48" s="5">
-        <v>0.94926299999999997</v>
+        <v>0.90388500000000005</v>
       </c>
       <c r="G48" s="5">
-        <v>0.30311700000000003</v>
+        <v>0.41706599999999999</v>
       </c>
       <c r="H48" s="5">
-        <v>0.111402</v>
+        <v>0.23513000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
+        <v>59</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="C49" t="b">
         <v>1</v>
       </c>
       <c r="D49" s="7">
-        <v>2977909.5289340001</v>
+        <v>2974355.09858</v>
       </c>
       <c r="E49" s="5">
-        <v>7.7590000000000003E-3</v>
+        <v>8.4159999999999999E-3</v>
       </c>
       <c r="F49" s="5">
-        <v>0.946743</v>
+        <v>0.90388500000000005</v>
       </c>
       <c r="G49" s="5">
-        <v>0.28461900000000001</v>
+        <v>0.41706599999999999</v>
       </c>
       <c r="H49" s="5">
-        <v>0.120604</v>
+        <v>0.23513000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="C50" t="b">
         <v>1</v>
       </c>
       <c r="D50" s="7">
-        <v>2977947.143408</v>
+        <v>2974355.09858</v>
       </c>
       <c r="E50" s="5">
-        <v>7.7720000000000003E-3</v>
+        <v>8.4159999999999999E-3</v>
       </c>
       <c r="F50" s="5">
-        <v>0.78771899999999995</v>
+        <v>0.90388500000000005</v>
       </c>
       <c r="G50" s="5">
-        <v>0.65691999999999995</v>
+        <v>0.41706599999999999</v>
       </c>
       <c r="H50" s="5">
-        <v>0.53692200000000001</v>
+        <v>0.23513000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="C51" t="b">
         <v>1</v>
       </c>
       <c r="D51" s="7">
-        <v>2978342.3360520001</v>
+        <v>2974386.5776010002</v>
       </c>
       <c r="E51" s="5">
-        <v>7.9050000000000006E-3</v>
+        <v>8.4270000000000005E-3</v>
       </c>
       <c r="F51" s="5">
-        <v>0.82309900000000003</v>
+        <v>0.90803</v>
       </c>
       <c r="G51" s="5">
-        <v>0.52265399999999995</v>
+        <v>0.40844599999999998</v>
       </c>
       <c r="H51" s="5">
-        <v>0.41579700000000003</v>
+        <v>0.22883000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="C52" t="b">
         <v>1</v>
       </c>
       <c r="D52" s="7">
-        <v>2978511.7074890002</v>
+        <v>2974527.0507860002</v>
       </c>
       <c r="E52" s="5">
-        <v>7.9629999999999996E-3</v>
+        <v>8.4749999999999999E-3</v>
       </c>
       <c r="F52" s="5">
-        <v>0.94670200000000004</v>
+        <v>0.80794699999999997</v>
       </c>
       <c r="G52" s="5">
-        <v>0.32064100000000001</v>
+        <v>0.65528500000000001</v>
       </c>
       <c r="H52" s="5">
-        <v>0.116881</v>
+        <v>0.55449300000000001</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="C53" t="b">
         <v>1</v>
       </c>
       <c r="D53" s="7">
-        <v>2978511.7074890002</v>
+        <v>2974672.6822489998</v>
       </c>
       <c r="E53" s="5">
-        <v>7.9629999999999996E-3</v>
+        <v>8.5240000000000003E-3</v>
       </c>
       <c r="F53" s="5">
-        <v>0.94670200000000004</v>
+        <v>0.94578399999999996</v>
       </c>
       <c r="G53" s="5">
-        <v>0.32064100000000001</v>
+        <v>0.30542999999999998</v>
       </c>
       <c r="H53" s="5">
-        <v>0.116881</v>
+        <v>0.122045</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C54" t="b">
         <v>1</v>
       </c>
       <c r="D54" s="7">
-        <v>2978511.7074890002</v>
+        <v>2974770.9938559998</v>
       </c>
       <c r="E54" s="5">
-        <v>7.9629999999999996E-3</v>
+        <v>8.5570000000000004E-3</v>
       </c>
       <c r="F54" s="5">
-        <v>0.94670200000000004</v>
+        <v>0.90589600000000003</v>
       </c>
       <c r="G54" s="5">
-        <v>0.32064100000000001</v>
+        <v>0.41452099999999997</v>
       </c>
       <c r="H54" s="5">
-        <v>0.116881</v>
+        <v>0.235678</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C55" t="b">
         <v>1</v>
       </c>
       <c r="D55" s="7">
-        <v>2978511.7074890002</v>
+        <v>2975213.567826</v>
       </c>
       <c r="E55" s="5">
-        <v>7.9629999999999996E-3</v>
+        <v>8.7069999999999995E-3</v>
       </c>
       <c r="F55" s="5">
-        <v>0.94670200000000004</v>
+        <v>0.91525100000000004</v>
       </c>
       <c r="G55" s="5">
-        <v>0.32064100000000001</v>
+        <v>0.36678500000000003</v>
       </c>
       <c r="H55" s="5">
-        <v>0.116881</v>
+        <v>0.208814</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="C56" t="b">
         <v>1</v>
       </c>
       <c r="D56" s="7">
-        <v>2978511.7074890002</v>
+        <v>2975485.6029269998</v>
       </c>
       <c r="E56" s="5">
-        <v>7.9629999999999996E-3</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="F56" s="5">
-        <v>0.94670200000000004</v>
+        <v>0.90665899999999999</v>
       </c>
       <c r="G56" s="5">
-        <v>0.32064100000000001</v>
+        <v>0.38518799999999997</v>
       </c>
       <c r="H56" s="5">
-        <v>0.116881</v>
+        <v>0.23317499999999999</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C57" t="b">
         <v>1</v>
       </c>
       <c r="D57" s="7">
-        <v>2978511.7074890002</v>
+        <v>2975609.6848780001</v>
       </c>
       <c r="E57" s="5">
-        <v>7.9629999999999996E-3</v>
+        <v>8.8419999999999992E-3</v>
       </c>
       <c r="F57" s="5">
-        <v>0.94670200000000004</v>
+        <v>0.91172299999999995</v>
       </c>
       <c r="G57" s="5">
-        <v>0.32064100000000001</v>
+        <v>0.37868200000000002</v>
       </c>
       <c r="H57" s="5">
-        <v>0.116881</v>
+        <v>0.21945899999999999</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C58" t="b">
         <v>1</v>
       </c>
       <c r="D58" s="7">
-        <v>2978511.7074890002</v>
+        <v>2976846.7593129999</v>
       </c>
       <c r="E58" s="5">
-        <v>7.9629999999999996E-3</v>
+        <v>9.2610000000000001E-3</v>
       </c>
       <c r="F58" s="5">
-        <v>0.94670200000000004</v>
+        <v>0.87357200000000002</v>
       </c>
       <c r="G58" s="5">
-        <v>0.32064100000000001</v>
+        <v>0.47951899999999997</v>
       </c>
       <c r="H58" s="5">
-        <v>0.116881</v>
+        <v>0.32068400000000002</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C59" t="b">
         <v>1</v>
       </c>
       <c r="D59" s="7">
-        <v>2978511.7074890002</v>
+        <v>2977042.2535509998</v>
       </c>
       <c r="E59" s="5">
-        <v>7.9629999999999996E-3</v>
+        <v>9.3270000000000002E-3</v>
       </c>
       <c r="F59" s="5">
-        <v>0.94670200000000004</v>
+        <v>0.95042899999999997</v>
       </c>
       <c r="G59" s="5">
-        <v>0.32064100000000001</v>
+        <v>0.27011099999999999</v>
       </c>
       <c r="H59" s="5">
-        <v>0.116881</v>
+        <v>0.110989</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="C60" t="b">
         <v>1</v>
       </c>
       <c r="D60" s="7">
-        <v>2978511.7074890002</v>
+        <v>2977467.2444270002</v>
       </c>
       <c r="E60" s="5">
-        <v>7.9629999999999996E-3</v>
+        <v>9.4710000000000003E-3</v>
       </c>
       <c r="F60" s="5">
-        <v>0.94670200000000004</v>
+        <v>0.94934799999999997</v>
       </c>
       <c r="G60" s="5">
-        <v>0.32064100000000001</v>
+        <v>0.274121</v>
       </c>
       <c r="H60" s="5">
-        <v>0.116881</v>
+        <v>0.113728</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C61" t="b">
         <v>1</v>
       </c>
       <c r="D61" s="7">
-        <v>2978511.7074890002</v>
+        <v>2977517.8913170001</v>
       </c>
       <c r="E61" s="5">
-        <v>7.9629999999999996E-3</v>
+        <v>9.4889999999999992E-3</v>
       </c>
       <c r="F61" s="5">
-        <v>0.94670200000000004</v>
+        <v>0.94927899999999998</v>
       </c>
       <c r="G61" s="5">
-        <v>0.32064100000000001</v>
+        <v>0.28989999999999999</v>
       </c>
       <c r="H61" s="5">
-        <v>0.116881</v>
+        <v>0.113312</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="C62" t="b">
         <v>1</v>
       </c>
       <c r="D62" s="7">
-        <v>2978744.0611979999</v>
+        <v>2977587.1151709999</v>
       </c>
       <c r="E62" s="5">
-        <v>8.0409999999999995E-3</v>
+        <v>9.5119999999999996E-3</v>
       </c>
       <c r="F62" s="5">
-        <v>0.88017299999999998</v>
+        <v>0.94983700000000004</v>
       </c>
       <c r="G62" s="5">
-        <v>0.48289399999999999</v>
+        <v>0.28803600000000001</v>
       </c>
       <c r="H62" s="5">
-        <v>0.30681700000000001</v>
+        <v>0.111932</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C63" t="b">
         <v>1</v>
       </c>
       <c r="D63" s="7">
-        <v>2979791.165203</v>
+        <v>2978118.2919350001</v>
       </c>
       <c r="E63" s="5">
-        <v>8.3960000000000007E-3</v>
+        <v>9.6919999999999992E-3</v>
       </c>
       <c r="F63" s="5">
-        <v>0.98152099999999998</v>
+        <v>0.90359599999999995</v>
       </c>
       <c r="G63" s="5">
-        <v>0.14052500000000001</v>
+        <v>0.409277</v>
       </c>
       <c r="H63" s="5">
-        <v>3.8150000000000003E-2</v>
+        <v>0.24130099999999999</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="C64" t="b">
         <v>1</v>
       </c>
       <c r="D64" s="7">
-        <v>2979940.2184219998</v>
+        <v>2979858.5978660001</v>
       </c>
       <c r="E64" s="5">
-        <v>8.4460000000000004E-3</v>
+        <v>1.0281999999999999E-2</v>
       </c>
       <c r="F64" s="5">
-        <v>0.80474500000000004</v>
+        <v>0.947465</v>
       </c>
       <c r="G64" s="5">
-        <v>0.60860499999999995</v>
+        <v>0.29573700000000003</v>
       </c>
       <c r="H64" s="5">
-        <v>0.47469099999999997</v>
+        <v>0.11801</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="C65" t="b">
         <v>1</v>
       </c>
       <c r="D65" s="7">
-        <v>2979955.193585</v>
+        <v>2980995.2194670001</v>
       </c>
       <c r="E65" s="5">
-        <v>8.4510000000000002E-3</v>
+        <v>1.0668E-2</v>
       </c>
       <c r="F65" s="5">
-        <v>0.82606800000000002</v>
+        <v>0.95516699999999999</v>
       </c>
       <c r="G65" s="5">
-        <v>0.55918299999999999</v>
+        <v>0.28366200000000003</v>
       </c>
       <c r="H65" s="5">
-        <v>0.42307800000000001</v>
+        <v>9.7361000000000003E-2</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="C66" t="b">
         <v>1</v>
       </c>
       <c r="D66" s="7">
-        <v>2980128.685873</v>
+        <v>2981937.726522</v>
       </c>
       <c r="E66" s="5">
-        <v>8.5100000000000002E-3</v>
+        <v>1.0987E-2</v>
       </c>
       <c r="F66" s="5">
-        <v>0.78397899999999998</v>
+        <v>0.87369399999999997</v>
       </c>
       <c r="G66" s="5">
-        <v>0.69609799999999999</v>
+        <v>0.46881899999999999</v>
       </c>
       <c r="H66" s="5">
-        <v>0.52632800000000002</v>
+        <v>0.32117299999999999</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="C67" t="b">
         <v>1</v>
       </c>
       <c r="D67" s="7">
-        <v>2980142.7630619998</v>
+        <v>2983119.267405</v>
       </c>
       <c r="E67" s="5">
-        <v>8.515E-3</v>
+        <v>1.1388000000000001E-2</v>
       </c>
       <c r="F67" s="5">
-        <v>0.984985</v>
+        <v>0.94733900000000004</v>
       </c>
       <c r="G67" s="5">
-        <v>0.117192</v>
+        <v>0.298369</v>
       </c>
       <c r="H67" s="5">
-        <v>3.0877000000000002E-2</v>
+        <v>0.119141</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="C68" t="b">
         <v>1</v>
       </c>
       <c r="D68" s="7">
-        <v>2980300.1170310001</v>
+        <v>2985333.8102060002</v>
       </c>
       <c r="E68" s="5">
-        <v>8.5679999999999992E-3</v>
+        <v>1.2139E-2</v>
       </c>
       <c r="F68" s="5">
-        <v>0.87642399999999998</v>
+        <v>0.81015199999999998</v>
       </c>
       <c r="G68" s="5">
-        <v>0.52221799999999996</v>
+        <v>0.67162900000000003</v>
       </c>
       <c r="H68" s="5">
-        <v>0.310803</v>
+        <v>0.55726900000000001</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="C69" t="b">
         <v>1</v>
       </c>
       <c r="D69" s="7">
-        <v>2980685.139653</v>
+        <v>3027963.7809700002</v>
       </c>
       <c r="E69" s="5">
-        <v>8.6979999999999991E-3</v>
+        <v>2.6592000000000001E-2</v>
       </c>
       <c r="F69" s="5">
-        <v>0.78300700000000001</v>
+        <v>0.75569200000000003</v>
       </c>
       <c r="G69" s="5">
-        <v>0.64993000000000001</v>
+        <v>0.81400600000000001</v>
       </c>
       <c r="H69" s="5">
-        <v>0.54614499999999999</v>
+        <v>0.66162600000000005</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C70" t="b">
         <v>1</v>
       </c>
       <c r="D70" s="7">
-        <v>2981326.0138079999</v>
+        <v>3030051.6524820002</v>
       </c>
       <c r="E70" s="5">
-        <v>8.9149999999999993E-3</v>
+        <v>2.7300000000000001E-2</v>
       </c>
       <c r="F70" s="5">
-        <v>0.77818600000000004</v>
+        <v>0.74799400000000005</v>
       </c>
       <c r="G70" s="5">
-        <v>0.66857299999999997</v>
+        <v>0.83149899999999999</v>
       </c>
       <c r="H70" s="5">
-        <v>0.562029</v>
+        <v>0.66702300000000003</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C71" t="b">
         <v>1</v>
       </c>
       <c r="D71" s="7">
-        <v>2981326.0138079999</v>
+        <v>3030940.5401380002</v>
       </c>
       <c r="E71" s="5">
-        <v>8.9149999999999993E-3</v>
+        <v>2.7601000000000001E-2</v>
       </c>
       <c r="F71" s="5">
-        <v>0.77818600000000004</v>
+        <v>0.82994000000000001</v>
       </c>
       <c r="G71" s="5">
-        <v>0.66857299999999997</v>
+        <v>0.73375400000000002</v>
       </c>
       <c r="H71" s="5">
-        <v>0.562029</v>
+        <v>0.43645800000000001</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="C72" t="b">
         <v>1</v>
       </c>
       <c r="D72" s="7">
-        <v>2981461.1945170001</v>
+        <v>3032136.8204999999</v>
       </c>
       <c r="E72" s="5">
-        <v>8.9610000000000002E-3</v>
+        <v>2.8006E-2</v>
       </c>
       <c r="F72" s="5">
-        <v>0.80280799999999997</v>
+        <v>0.742649</v>
       </c>
       <c r="G72" s="5">
-        <v>0.66975499999999999</v>
+        <v>0.83820399999999995</v>
       </c>
       <c r="H72" s="5">
-        <v>0.501884</v>
+        <v>0.68145800000000001</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="C73" t="b">
         <v>1</v>
       </c>
       <c r="D73" s="7">
-        <v>2981501.6074140002</v>
+        <v>3032252.2307190001</v>
       </c>
       <c r="E73" s="5">
-        <v>8.9750000000000003E-3</v>
+        <v>2.8046000000000001E-2</v>
       </c>
       <c r="F73" s="5">
-        <v>0.98450300000000002</v>
+        <v>0.74064099999999999</v>
       </c>
       <c r="G73" s="5">
-        <v>0.117782</v>
+        <v>0.83637600000000001</v>
       </c>
       <c r="H73" s="5">
-        <v>3.1882000000000001E-2</v>
+        <v>0.68161899999999997</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C74" t="b">
         <v>1</v>
       </c>
       <c r="D74" s="7">
-        <v>2981501.6074140002</v>
+        <v>3032256.5676529999</v>
       </c>
       <c r="E74" s="5">
-        <v>8.9750000000000003E-3</v>
+        <v>2.8046999999999999E-2</v>
       </c>
       <c r="F74" s="5">
-        <v>0.98450300000000002</v>
+        <v>0.74180100000000004</v>
       </c>
       <c r="G74" s="5">
-        <v>0.117782</v>
+        <v>0.83533199999999996</v>
       </c>
       <c r="H74" s="5">
-        <v>3.1882000000000001E-2</v>
+        <v>0.67884599999999995</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="C75" t="b">
         <v>1</v>
       </c>
       <c r="D75" s="7">
-        <v>2981501.6074140002</v>
+        <v>3032256.5676529999</v>
       </c>
       <c r="E75" s="5">
-        <v>8.9750000000000003E-3</v>
+        <v>2.8046999999999999E-2</v>
       </c>
       <c r="F75" s="5">
-        <v>0.98450300000000002</v>
+        <v>0.74180100000000004</v>
       </c>
       <c r="G75" s="5">
-        <v>0.117782</v>
+        <v>0.83533199999999996</v>
       </c>
       <c r="H75" s="5">
-        <v>3.1882000000000001E-2</v>
+        <v>0.67884599999999995</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C76" t="b">
         <v>1</v>
       </c>
       <c r="D76" s="7">
-        <v>2981501.6074140002</v>
+        <v>3032402.2231000001</v>
       </c>
       <c r="E76" s="5">
-        <v>8.9750000000000003E-3</v>
+        <v>2.8095999999999999E-2</v>
       </c>
       <c r="F76" s="5">
-        <v>0.98450300000000002</v>
+        <v>0.74696700000000005</v>
       </c>
       <c r="G76" s="5">
-        <v>0.117782</v>
+        <v>0.836511</v>
       </c>
       <c r="H76" s="5">
-        <v>3.1882000000000001E-2</v>
+        <v>0.67554599999999998</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="C77" t="b">
         <v>1</v>
       </c>
       <c r="D77" s="7">
-        <v>2981532.507975</v>
+        <v>3033400.015532</v>
       </c>
       <c r="E77" s="5">
-        <v>8.9849999999999999E-3</v>
+        <v>2.8434999999999998E-2</v>
       </c>
       <c r="F77" s="5">
-        <v>0.98169899999999999</v>
+        <v>0.83940000000000003</v>
       </c>
       <c r="G77" s="5">
-        <v>0.13652500000000001</v>
+        <v>0.70638900000000004</v>
       </c>
       <c r="H77" s="5">
-        <v>3.7886999999999997E-2</v>
+        <v>0.40246799999999999</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="C78" t="b">
         <v>1</v>
       </c>
       <c r="D78" s="7">
-        <v>2981532.507975</v>
+        <v>3033741.9367109998</v>
       </c>
       <c r="E78" s="5">
-        <v>8.9849999999999999E-3</v>
+        <v>2.8551E-2</v>
       </c>
       <c r="F78" s="5">
-        <v>0.98169899999999999</v>
+        <v>0.81279699999999999</v>
       </c>
       <c r="G78" s="5">
-        <v>0.13652500000000001</v>
+        <v>0.76846700000000001</v>
       </c>
       <c r="H78" s="5">
-        <v>3.7886999999999997E-2</v>
+        <v>0.49530099999999999</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="C79" t="b">
         <v>1</v>
       </c>
       <c r="D79" s="7">
-        <v>2981532.507975</v>
+        <v>3037189.263485</v>
       </c>
       <c r="E79" s="5">
-        <v>8.9849999999999999E-3</v>
+        <v>2.9718999999999999E-2</v>
       </c>
       <c r="F79" s="5">
-        <v>0.98169899999999999</v>
+        <v>0.750004</v>
       </c>
       <c r="G79" s="5">
-        <v>0.13652500000000001</v>
+        <v>0.84718499999999997</v>
       </c>
       <c r="H79" s="5">
-        <v>3.7886999999999997E-2</v>
+        <v>0.68203999999999998</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C80" t="b">
         <v>1</v>
       </c>
       <c r="D80" s="7">
-        <v>2981532.507975</v>
+        <v>3037280.361579</v>
       </c>
       <c r="E80" s="5">
-        <v>8.9849999999999999E-3</v>
+        <v>2.9749999999999999E-2</v>
       </c>
       <c r="F80" s="5">
-        <v>0.98169899999999999</v>
+        <v>0.74042699999999995</v>
       </c>
       <c r="G80" s="5">
-        <v>0.13652500000000001</v>
+        <v>0.851877</v>
       </c>
       <c r="H80" s="5">
-        <v>3.7886999999999997E-2</v>
+        <v>0.69799599999999995</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C81" t="b">
         <v>1</v>
       </c>
       <c r="D81" s="7">
-        <v>2981532.507975</v>
+        <v>3037565.4871459999</v>
       </c>
       <c r="E81" s="5">
-        <v>8.9849999999999999E-3</v>
+        <v>2.9846999999999999E-2</v>
       </c>
       <c r="F81" s="5">
-        <v>0.98169899999999999</v>
+        <v>0.84935899999999998</v>
       </c>
       <c r="G81" s="5">
-        <v>0.13652500000000001</v>
+        <v>0.66139499999999996</v>
       </c>
       <c r="H81" s="5">
-        <v>3.7886999999999997E-2</v>
+        <v>0.37362800000000002</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="C82" t="b">
         <v>1</v>
       </c>
       <c r="D82" s="7">
-        <v>2981532.507975</v>
+        <v>3041373.6992850001</v>
       </c>
       <c r="E82" s="5">
-        <v>8.9849999999999999E-3</v>
+        <v>3.1137999999999999E-2</v>
       </c>
       <c r="F82" s="5">
-        <v>0.98169899999999999</v>
+        <v>0.81737800000000005</v>
       </c>
       <c r="G82" s="5">
-        <v>0.13652500000000001</v>
+        <v>0.75484200000000001</v>
       </c>
       <c r="H82" s="5">
-        <v>3.7886999999999997E-2</v>
+        <v>0.472109</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="C83" t="b">
         <v>1</v>
       </c>
       <c r="D83" s="7">
-        <v>2982106.0610859999</v>
+        <v>3042254.3792699999</v>
       </c>
       <c r="E83" s="5">
-        <v>9.1789999999999997E-3</v>
+        <v>3.1437E-2</v>
       </c>
       <c r="F83" s="5">
-        <v>0.98361200000000004</v>
+        <v>0.80985799999999997</v>
       </c>
       <c r="G83" s="5">
-        <v>0.123804</v>
+        <v>0.76870400000000005</v>
       </c>
       <c r="H83" s="5">
-        <v>3.3789E-2</v>
+        <v>0.49389300000000003</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="C84" t="b">
         <v>1</v>
       </c>
       <c r="D84" s="7">
-        <v>2982180.9504089998</v>
+        <v>3043466.4965189998</v>
       </c>
       <c r="E84" s="5">
-        <v>9.2049999999999996E-3</v>
+        <v>3.1848000000000001E-2</v>
       </c>
       <c r="F84" s="5">
-        <v>0.779636</v>
+        <v>0.81174400000000002</v>
       </c>
       <c r="G84" s="5">
-        <v>0.71310399999999996</v>
+        <v>0.76273500000000005</v>
       </c>
       <c r="H84" s="5">
-        <v>0.54590399999999994</v>
+        <v>0.485989</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="C85" t="b">
         <v>1</v>
       </c>
       <c r="D85" s="7">
-        <v>2982229.106712</v>
+        <v>3045246.8786980002</v>
       </c>
       <c r="E85" s="5">
-        <v>9.221E-3</v>
+        <v>3.2451000000000001E-2</v>
       </c>
       <c r="F85" s="5">
-        <v>0.98034600000000005</v>
+        <v>0.83082900000000004</v>
       </c>
       <c r="G85" s="5">
-        <v>0.145236</v>
+        <v>0.71663299999999996</v>
       </c>
       <c r="H85" s="5">
-        <v>4.0842999999999997E-2</v>
+        <v>0.426396</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="C86" t="b">
         <v>1</v>
       </c>
       <c r="D86" s="7">
-        <v>2983814.1977969999</v>
+        <v>3266637.4079979998</v>
       </c>
       <c r="E86" s="5">
-        <v>9.757E-3</v>
+        <v>0.107511</v>
       </c>
       <c r="F86" s="5">
-        <v>0.81152199999999997</v>
+        <v>0.67989500000000003</v>
       </c>
       <c r="G86" s="5">
-        <v>0.54967100000000002</v>
+        <v>0.95457199999999998</v>
       </c>
       <c r="H86" s="5">
-        <v>0.44261899999999998</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>13</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C87" t="b">
-        <v>1</v>
-      </c>
-      <c r="D87" s="7">
-        <v>2984030.5865130001</v>
-      </c>
-      <c r="E87" s="5">
-        <v>9.8300000000000002E-3</v>
-      </c>
-      <c r="F87" s="5">
-        <v>0.98357300000000003</v>
-      </c>
-      <c r="G87" s="5">
-        <v>0.123859</v>
-      </c>
-      <c r="H87" s="5">
-        <v>3.3805000000000002E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>45</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C88" t="b">
-        <v>1</v>
-      </c>
-      <c r="D88" s="7">
-        <v>2984418.1378950002</v>
-      </c>
-      <c r="E88" s="5">
-        <v>9.9620000000000004E-3</v>
-      </c>
-      <c r="F88" s="5">
-        <v>0.77263099999999996</v>
-      </c>
-      <c r="G88" s="5">
-        <v>0.71817299999999995</v>
-      </c>
-      <c r="H88" s="5">
-        <v>0.59762899999999997</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>75</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C89" t="b">
-        <v>1</v>
-      </c>
-      <c r="D89" s="7">
-        <v>2984603.2617179998</v>
-      </c>
-      <c r="E89" s="5">
-        <v>1.0024E-2</v>
-      </c>
-      <c r="F89" s="5">
-        <v>0.764463</v>
-      </c>
-      <c r="G89" s="5">
-        <v>0.781443</v>
-      </c>
-      <c r="H89" s="5">
-        <v>0.59878900000000002</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>63</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C90" t="b">
-        <v>1</v>
-      </c>
-      <c r="D90" s="7">
-        <v>2984702.913065</v>
-      </c>
-      <c r="E90" s="5">
-        <v>1.0057999999999999E-2</v>
-      </c>
-      <c r="F90" s="5">
-        <v>0.981576</v>
-      </c>
-      <c r="G90" s="5">
-        <v>0.137212</v>
-      </c>
-      <c r="H90" s="5">
-        <v>3.8155000000000001E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>70</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C91" t="b">
-        <v>1</v>
-      </c>
-      <c r="D91" s="7">
-        <v>2984753.1159999999</v>
-      </c>
-      <c r="E91" s="5">
-        <v>1.0075000000000001E-2</v>
-      </c>
-      <c r="F91" s="5">
-        <v>0.77743200000000001</v>
-      </c>
-      <c r="G91" s="5">
-        <v>0.70449700000000004</v>
-      </c>
-      <c r="H91" s="5">
-        <v>0.58140700000000001</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>37</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C92" t="b">
-        <v>1</v>
-      </c>
-      <c r="D92" s="7">
-        <v>2985757.2390939998</v>
-      </c>
-      <c r="E92" s="5">
-        <v>1.0415000000000001E-2</v>
-      </c>
-      <c r="F92" s="5">
-        <v>0.83884300000000001</v>
-      </c>
-      <c r="G92" s="5">
-        <v>0.54459299999999999</v>
-      </c>
-      <c r="H92" s="5">
-        <v>0.39587499999999998</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>80</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C93" t="b">
-        <v>1</v>
-      </c>
-      <c r="D93" s="7">
-        <v>2986638.5491530001</v>
-      </c>
-      <c r="E93" s="5">
-        <v>1.0713E-2</v>
-      </c>
-      <c r="F93" s="5">
-        <v>0.76128499999999999</v>
-      </c>
-      <c r="G93" s="5">
-        <v>0.745641</v>
-      </c>
-      <c r="H93" s="5">
-        <v>0.62529199999999996</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>4</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C94" t="b">
-        <v>1</v>
-      </c>
-      <c r="D94" s="7">
-        <v>2987118.651505</v>
-      </c>
-      <c r="E94" s="5">
-        <v>1.0874999999999999E-2</v>
-      </c>
-      <c r="F94" s="5">
-        <v>0.80573600000000001</v>
-      </c>
-      <c r="G94" s="5">
-        <v>0.82168600000000003</v>
-      </c>
-      <c r="H94" s="5">
-        <v>0.49834899999999999</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>53</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C95" t="b">
-        <v>1</v>
-      </c>
-      <c r="D95" s="7">
-        <v>2987335.357963</v>
-      </c>
-      <c r="E95" s="5">
-        <v>1.0949E-2</v>
-      </c>
-      <c r="F95" s="5">
-        <v>0.78664599999999996</v>
-      </c>
-      <c r="G95" s="5">
-        <v>0.650783</v>
-      </c>
-      <c r="H95" s="5">
-        <v>0.54055500000000001</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>92</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C96" t="b">
-        <v>1</v>
-      </c>
-      <c r="D96" s="7">
-        <v>2991080.503151</v>
-      </c>
-      <c r="E96" s="5">
-        <v>1.2215999999999999E-2</v>
-      </c>
-      <c r="F96" s="5">
-        <v>0.80151799999999995</v>
-      </c>
-      <c r="G96" s="5">
-        <v>0.59814100000000003</v>
-      </c>
-      <c r="H96" s="5">
-        <v>0.47512500000000002</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>78</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C97" t="b">
-        <v>1</v>
-      </c>
-      <c r="D97" s="7">
-        <v>3007336.5054390002</v>
-      </c>
-      <c r="E97" s="5">
-        <v>1.7717E-2</v>
-      </c>
-      <c r="F97" s="5">
-        <v>0.78766000000000003</v>
-      </c>
-      <c r="G97" s="5">
-        <v>0.71397600000000006</v>
-      </c>
-      <c r="H97" s="5">
-        <v>0.56588499999999997</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>52</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C98" t="b">
-        <v>1</v>
-      </c>
-      <c r="D98" s="7">
-        <v>3031045.663251</v>
-      </c>
-      <c r="E98" s="5">
-        <v>2.5741E-2</v>
-      </c>
-      <c r="F98" s="5">
-        <v>0.79834499999999997</v>
-      </c>
-      <c r="G98" s="5">
-        <v>0.80952500000000005</v>
-      </c>
-      <c r="H98" s="5">
-        <v>0.53983999999999999</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>85</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C99" t="b">
-        <v>1</v>
-      </c>
-      <c r="D99" s="7">
-        <v>3031946.235905</v>
-      </c>
-      <c r="E99" s="5">
-        <v>2.6046E-2</v>
-      </c>
-      <c r="F99" s="5">
-        <v>0.75765099999999996</v>
-      </c>
-      <c r="G99" s="5">
-        <v>0.84905799999999998</v>
-      </c>
-      <c r="H99" s="5">
-        <v>0.66247299999999998</v>
+        <v>0.85907699999999998</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I99">
-    <sortCondition ref="D2:D99"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I86">
+    <sortCondition ref="D2:D86"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
